--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="422">
   <si>
     <t>ID</t>
   </si>
@@ -137,60 +137,57 @@
     <t>步兵</t>
   </si>
   <si>
-    <t>Arms#name#artillery</t>
+    <t>Arms#name#tank</t>
+  </si>
+  <si>
+    <t>坦克（区别翻译2）</t>
+  </si>
+  <si>
+    <t>坦克</t>
+  </si>
+  <si>
+    <t>Arms#name#tank_destroyer</t>
+  </si>
+  <si>
+    <t>dwdw</t>
+  </si>
+  <si>
+    <t>坦歼</t>
+  </si>
+  <si>
+    <t>Arms#name#okok</t>
+  </si>
+  <si>
+    <t>dwdd</t>
+  </si>
+  <si>
+    <t>大无畏</t>
+  </si>
+  <si>
+    <t>Arms#name#test2</t>
+  </si>
+  <si>
+    <t>0.3.2</t>
+  </si>
+  <si>
+    <t>Test#test22#testQ0</t>
+  </si>
+  <si>
+    <t>Share ID</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Arms#name#test3</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <t>炮兵</t>
   </si>
   <si>
-    <t>Arms#name#test3</t>
-  </si>
-  <si>
-    <t>Share ID</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>Arms#name#tank</t>
-  </si>
-  <si>
-    <t>坦克（区别翻译2）</t>
-  </si>
-  <si>
-    <t>坦克</t>
-  </si>
-  <si>
-    <t>Arms#name#tank_destroyer</t>
-  </si>
-  <si>
-    <t>dwdw</t>
-  </si>
-  <si>
-    <t>坦歼</t>
-  </si>
-  <si>
-    <t>Arms#name#okok</t>
-  </si>
-  <si>
-    <t>dwdd</t>
-  </si>
-  <si>
-    <t>大无畏</t>
-  </si>
-  <si>
-    <t>Arms#name#test2</t>
-  </si>
-  <si>
-    <t>0.3.2</t>
-  </si>
-  <si>
-    <t>Test#test22#testQ0</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
     <t>Bubble#title#1</t>
   </si>
   <si>
@@ -1137,6 +1134,117 @@
   </si>
   <si>
     <t>主基地</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#1000</t>
+  </si>
+  <si>
+    <t>ssss</t>
+  </si>
+  <si>
+    <t>建筑名</t>
+  </si>
+  <si>
+    <t>指挥部废墟</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#1011</t>
+  </si>
+  <si>
+    <t>应急指挥中心</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#2000</t>
+  </si>
+  <si>
+    <t>①号兵营废墟</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#7017</t>
+  </si>
+  <si>
+    <t>综合医院</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#7018</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#8019</t>
+  </si>
+  <si>
+    <t>综合保障局</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#8020</t>
+  </si>
+  <si>
+    <t>联合保障部</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#8021</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#9031</t>
+  </si>
+  <si>
+    <t>工厂中心</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_name#9032</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#1000</t>
+  </si>
+  <si>
+    <t>建筑描述</t>
+  </si>
+  <si>
+    <t>重建</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#2000</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#1011</t>
+  </si>
+  <si>
+    <t>修建壕沟</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#7017</t>
+  </si>
+  <si>
+    <t>加固地基</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#8021</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#9032</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#7018</t>
+  </si>
+  <si>
+    <t>增设药房</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#8019</t>
+  </si>
+  <si>
+    <t>扩建</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#8020</t>
+  </si>
+  <si>
+    <t>增设库房</t>
+  </si>
+  <si>
+    <t>CityBuilding#cb_step_name#9031</t>
+  </si>
+  <si>
+    <t>增设组装线</t>
   </si>
   <si>
     <t>Test#test22#testQ1</t>
@@ -1514,7 +1622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC170"/>
+  <dimension ref="A1:AC189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
@@ -1620,7 +1728,7 @@
         <v>28</v>
       </c>
       <c r="C2" t="n">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -1882,7 +1990,7 @@
       </c>
       <c r="B6" t="s"/>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s"/>
       <c r="E6" t="s"/>
@@ -1904,7 +2012,7 @@
         <v>41</v>
       </c>
       <c r="M6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N6" t="s"/>
       <c r="O6" t="s"/>
@@ -1925,26 +2033,36 @@
     </row>
     <row r="7" spans="1:29">
       <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" t="s"/>
+        <v>43</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
       <c r="D7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s"/>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s"/>
+      <c r="E7" t="s"/>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
       <c r="J7" t="s"/>
       <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
-      <c r="M7" t="s"/>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s"/>
       <c r="P7" t="s"/>
@@ -1964,13 +2082,15 @@
     </row>
     <row r="8" spans="1:29">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s"/>
       <c r="C8" t="n">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
       <c r="E8" t="s"/>
       <c r="F8" t="s">
         <v>35</v>
@@ -1987,10 +2107,10 @@
       <c r="J8" t="s"/>
       <c r="K8" t="s"/>
       <c r="L8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s"/>
       <c r="O8" t="s"/>
@@ -2011,35 +2131,31 @@
     </row>
     <row r="9" spans="1:29">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s"/>
       <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E9" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="D9" t="s"/>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
       <c r="F9" t="s">
         <v>35</v>
       </c>
       <c r="G9" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>38</v>
-      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s"/>
       <c r="J9" t="s"/>
       <c r="K9" t="s"/>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="M9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s"/>
       <c r="O9" t="s"/>
@@ -2062,34 +2178,24 @@
       <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="n">
-        <v>5</v>
-      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s"/>
       <c r="D10" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-      <c r="I10" t="s">
-        <v>38</v>
-      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s"/>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s"/>
       <c r="J10" t="s"/>
       <c r="K10" t="s"/>
-      <c r="L10" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" t="s">
-        <v>53</v>
-      </c>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
       <c r="N10" t="s"/>
       <c r="O10" t="s"/>
       <c r="P10" t="s"/>
@@ -2113,7 +2219,7 @@
       </c>
       <c r="B11" t="s"/>
       <c r="C11" t="n">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D11" t="s"/>
       <c r="E11" t="s">
@@ -2125,15 +2231,19 @@
       <c r="G11" t="s">
         <v>36</v>
       </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s"/>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
       <c r="J11" t="s"/>
       <c r="K11" t="s"/>
       <c r="L11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="M11" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="N11" t="s"/>
       <c r="O11" t="s"/>
@@ -2154,26 +2264,32 @@
     </row>
     <row r="12" spans="1:29">
       <c r="A12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" t="s"/>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
         <v>57</v>
       </c>
-      <c r="F12" t="s"/>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s"/>
+      <c r="B12" t="s"/>
+      <c r="C12" t="n">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s"/>
+      <c r="E12" t="s"/>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
       <c r="I12" t="s"/>
       <c r="J12" t="s"/>
       <c r="K12" t="s"/>
-      <c r="L12" t="s"/>
-      <c r="M12" t="s"/>
+      <c r="L12" t="s">
+        <v>61</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
       <c r="N12" t="s"/>
       <c r="O12" t="s"/>
       <c r="P12" t="s"/>
@@ -2192,220 +2308,222 @@
       <c r="AC12" t="s"/>
     </row>
     <row r="13" spans="1:29">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="1" t="s"/>
+      <c r="C13" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="D13" s="1" t="s"/>
+      <c r="E13" s="1" t="s"/>
+      <c r="F13" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="n">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s">
+      <c r="G13" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s">
-        <v>62</v>
-      </c>
-      <c r="M13" t="s">
-        <v>62</v>
-      </c>
-      <c r="N13" t="s"/>
-      <c r="O13" t="s"/>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
-      <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
-      <c r="V13" t="s"/>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
-      <c r="Z13" t="s"/>
-      <c r="AA13" t="s"/>
-      <c r="AB13" t="s"/>
-      <c r="AC13" t="s"/>
+      <c r="I13" s="1" t="s"/>
+      <c r="J13" s="1" t="s"/>
+      <c r="K13" s="1" t="s"/>
+      <c r="L13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" s="1" t="s"/>
+      <c r="Q13" s="1" t="s"/>
+      <c r="R13" s="1" t="s"/>
+      <c r="S13" s="1" t="s"/>
+      <c r="T13" s="1" t="s"/>
+      <c r="U13" s="1" t="s"/>
+      <c r="V13" s="1" t="s"/>
+      <c r="W13" s="1" t="s"/>
+      <c r="X13" s="1" t="s"/>
+      <c r="Y13" s="1" t="s"/>
+      <c r="Z13" s="1" t="s"/>
+      <c r="AA13" s="1" t="s"/>
+      <c r="AB13" s="1" t="s"/>
+      <c r="AC13" s="1" t="s"/>
     </row>
     <row r="14" spans="1:29">
-      <c r="A14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="1" t="s"/>
-      <c r="C14" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="D14" s="1" t="s"/>
-      <c r="E14" s="1" t="s"/>
-      <c r="F14" s="1" t="s">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="n">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s"/>
+      <c r="E14" t="s"/>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
         <v>59</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I14" s="1" t="s"/>
-      <c r="J14" s="1" t="s"/>
-      <c r="K14" s="1" t="s"/>
-      <c r="L14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="1" t="s"/>
-      <c r="Q14" s="1" t="s"/>
-      <c r="R14" s="1" t="s"/>
-      <c r="S14" s="1" t="s"/>
-      <c r="T14" s="1" t="s"/>
-      <c r="U14" s="1" t="s"/>
-      <c r="V14" s="1" t="s"/>
-      <c r="W14" s="1" t="s"/>
-      <c r="X14" s="1" t="s"/>
-      <c r="Y14" s="1" t="s"/>
-      <c r="Z14" s="1" t="s"/>
-      <c r="AA14" s="1" t="s"/>
-      <c r="AB14" s="1" t="s"/>
-      <c r="AC14" s="1" t="s"/>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s"/>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="s"/>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s"/>
+      <c r="Z14" t="s"/>
+      <c r="AA14" t="s"/>
+      <c r="AB14" t="s"/>
+      <c r="AC14" t="s"/>
     </row>
     <row r="15" spans="1:29">
-      <c r="A15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="n">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s"/>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s">
+      <c r="A15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="1" t="s"/>
+      <c r="C15" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="D15" s="1" t="s"/>
+      <c r="E15" s="1" t="s"/>
+      <c r="F15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I15" t="s"/>
-      <c r="J15" t="s"/>
-      <c r="K15" t="s"/>
-      <c r="L15" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" t="s">
-        <v>68</v>
-      </c>
-      <c r="N15" t="s"/>
-      <c r="O15" t="s"/>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
-      <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
-      <c r="V15" t="s"/>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
-      <c r="Y15" t="s"/>
-      <c r="Z15" t="s"/>
-      <c r="AA15" t="s"/>
-      <c r="AB15" t="s"/>
-      <c r="AC15" t="s"/>
+      <c r="I15" s="1" t="s"/>
+      <c r="J15" s="1" t="s"/>
+      <c r="K15" s="1" t="s"/>
+      <c r="L15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P15" s="1" t="s"/>
+      <c r="Q15" s="1" t="s"/>
+      <c r="R15" s="1" t="s"/>
+      <c r="S15" s="1" t="s"/>
+      <c r="T15" s="1" t="s"/>
+      <c r="U15" s="1" t="s"/>
+      <c r="V15" s="1" t="s"/>
+      <c r="W15" s="1" t="s"/>
+      <c r="X15" s="1" t="s"/>
+      <c r="Y15" s="1" t="s"/>
+      <c r="Z15" s="1" t="s"/>
+      <c r="AA15" s="1" t="s"/>
+      <c r="AB15" s="1" t="s"/>
+      <c r="AC15" s="1" t="s"/>
     </row>
     <row r="16" spans="1:29">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="1" t="s"/>
-      <c r="C16" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="D16" s="1" t="s"/>
-      <c r="E16" s="1" t="s"/>
-      <c r="F16" s="1" t="s">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="n">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s"/>
+      <c r="E16" t="s"/>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
         <v>59</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="1" t="s"/>
-      <c r="J16" s="1" t="s"/>
-      <c r="K16" s="1" t="s"/>
-      <c r="L16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="1" t="s"/>
-      <c r="Q16" s="1" t="s"/>
-      <c r="R16" s="1" t="s"/>
-      <c r="S16" s="1" t="s"/>
-      <c r="T16" s="1" t="s"/>
-      <c r="U16" s="1" t="s"/>
-      <c r="V16" s="1" t="s"/>
-      <c r="W16" s="1" t="s"/>
-      <c r="X16" s="1" t="s"/>
-      <c r="Y16" s="1" t="s"/>
-      <c r="Z16" s="1" t="s"/>
-      <c r="AA16" s="1" t="s"/>
-      <c r="AB16" s="1" t="s"/>
-      <c r="AC16" s="1" t="s"/>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s"/>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s">
+        <v>73</v>
+      </c>
+      <c r="M16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="s"/>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s"/>
+      <c r="Z16" t="s"/>
+      <c r="AA16" t="s"/>
+      <c r="AB16" t="s"/>
+      <c r="AC16" t="s"/>
     </row>
     <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s"/>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D17" t="s"/>
       <c r="E17" t="s"/>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s">
-        <v>61</v>
-      </c>
-      <c r="I17" t="s"/>
+        <v>77</v>
+      </c>
+      <c r="I17" t="s">
+        <v>78</v>
+      </c>
       <c r="J17" t="s"/>
       <c r="K17" t="s"/>
       <c r="L17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N17" t="s"/>
       <c r="O17" t="s"/>
@@ -2426,33 +2544,25 @@
     </row>
     <row r="18" spans="1:29">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s"/>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s"/>
       <c r="E18" t="s"/>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>77</v>
-      </c>
-      <c r="H18" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" t="s">
-        <v>79</v>
-      </c>
+      <c r="F18" t="s"/>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s"/>
       <c r="J18" t="s"/>
       <c r="K18" t="s"/>
       <c r="L18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s"/>
       <c r="O18" t="s"/>
@@ -2473,11 +2583,11 @@
     </row>
     <row r="19" spans="1:29">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s"/>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s"/>
       <c r="E19" t="s"/>
@@ -2488,10 +2598,10 @@
       <c r="J19" t="s"/>
       <c r="K19" t="s"/>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M19" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N19" t="s"/>
       <c r="O19" t="s"/>
@@ -2512,11 +2622,11 @@
     </row>
     <row r="20" spans="1:29">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" t="s"/>
       <c r="C20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s"/>
       <c r="E20" t="s"/>
@@ -2527,10 +2637,10 @@
       <c r="J20" t="s"/>
       <c r="K20" t="s"/>
       <c r="L20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N20" t="s"/>
       <c r="O20" t="s"/>
@@ -2551,11 +2661,11 @@
     </row>
     <row r="21" spans="1:29">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B21" t="s"/>
       <c r="C21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s"/>
       <c r="E21" t="s"/>
@@ -2566,10 +2676,10 @@
       <c r="J21" t="s"/>
       <c r="K21" t="s"/>
       <c r="L21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N21" t="s"/>
       <c r="O21" t="s"/>
@@ -2590,11 +2700,11 @@
     </row>
     <row r="22" spans="1:29">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s"/>
       <c r="C22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" t="s"/>
       <c r="E22" t="s"/>
@@ -2605,10 +2715,10 @@
       <c r="J22" t="s"/>
       <c r="K22" t="s"/>
       <c r="L22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N22" t="s"/>
       <c r="O22" t="s"/>
@@ -2629,11 +2739,11 @@
     </row>
     <row r="23" spans="1:29">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" t="s"/>
       <c r="C23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s"/>
       <c r="E23" t="s"/>
@@ -2642,14 +2752,18 @@
       <c r="H23" t="s"/>
       <c r="I23" t="s"/>
       <c r="J23" t="s"/>
-      <c r="K23" t="s"/>
+      <c r="K23" t="s">
+        <v>91</v>
+      </c>
       <c r="L23" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M23" t="s">
-        <v>90</v>
-      </c>
-      <c r="N23" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="N23" t="s">
+        <v>93</v>
+      </c>
       <c r="O23" t="s"/>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2668,11 +2782,11 @@
     </row>
     <row r="24" spans="1:29">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B24" t="s"/>
       <c r="C24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s"/>
       <c r="E24" t="s"/>
@@ -2681,18 +2795,14 @@
       <c r="H24" t="s"/>
       <c r="I24" t="s"/>
       <c r="J24" t="s"/>
-      <c r="K24" t="s">
-        <v>92</v>
-      </c>
+      <c r="K24" t="s"/>
       <c r="L24" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M24" t="s">
-        <v>93</v>
-      </c>
-      <c r="N24" t="s">
-        <v>94</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="N24" t="s"/>
       <c r="O24" t="s"/>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2711,11 +2821,11 @@
     </row>
     <row r="25" spans="1:29">
       <c r="A25" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s"/>
       <c r="C25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" t="s"/>
       <c r="E25" t="s"/>
@@ -2726,10 +2836,10 @@
       <c r="J25" t="s"/>
       <c r="K25" t="s"/>
       <c r="L25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N25" t="s"/>
       <c r="O25" t="s"/>
@@ -2750,11 +2860,11 @@
     </row>
     <row r="26" spans="1:29">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s"/>
       <c r="C26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" t="s"/>
       <c r="E26" t="s"/>
@@ -2765,10 +2875,10 @@
       <c r="J26" t="s"/>
       <c r="K26" t="s"/>
       <c r="L26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N26" t="s"/>
       <c r="O26" t="s"/>
@@ -2789,11 +2899,11 @@
     </row>
     <row r="27" spans="1:29">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s"/>
       <c r="C27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s"/>
       <c r="E27" t="s"/>
@@ -2804,10 +2914,10 @@
       <c r="J27" t="s"/>
       <c r="K27" t="s"/>
       <c r="L27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M27" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N27" t="s"/>
       <c r="O27" t="s"/>
@@ -2828,11 +2938,11 @@
     </row>
     <row r="28" spans="1:29">
       <c r="A28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B28" t="s"/>
       <c r="C28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s"/>
       <c r="E28" t="s"/>
@@ -2843,10 +2953,10 @@
       <c r="J28" t="s"/>
       <c r="K28" t="s"/>
       <c r="L28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N28" t="s"/>
       <c r="O28" t="s"/>
@@ -2867,11 +2977,11 @@
     </row>
     <row r="29" spans="1:29">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B29" t="s"/>
       <c r="C29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s"/>
       <c r="E29" t="s"/>
@@ -2882,10 +2992,10 @@
       <c r="J29" t="s"/>
       <c r="K29" t="s"/>
       <c r="L29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N29" t="s"/>
       <c r="O29" t="s"/>
@@ -2906,11 +3016,11 @@
     </row>
     <row r="30" spans="1:29">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B30" t="s"/>
       <c r="C30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s"/>
       <c r="E30" t="s"/>
@@ -2921,10 +3031,10 @@
       <c r="J30" t="s"/>
       <c r="K30" t="s"/>
       <c r="L30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M30" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N30" t="s"/>
       <c r="O30" t="s"/>
@@ -2945,11 +3055,11 @@
     </row>
     <row r="31" spans="1:29">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B31" t="s"/>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s"/>
       <c r="E31" t="s"/>
@@ -2960,10 +3070,10 @@
       <c r="J31" t="s"/>
       <c r="K31" t="s"/>
       <c r="L31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M31" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N31" t="s"/>
       <c r="O31" t="s"/>
@@ -2984,11 +3094,11 @@
     </row>
     <row r="32" spans="1:29">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s"/>
       <c r="C32" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s"/>
       <c r="E32" t="s"/>
@@ -2999,10 +3109,10 @@
       <c r="J32" t="s"/>
       <c r="K32" t="s"/>
       <c r="L32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N32" t="s"/>
       <c r="O32" t="s"/>
@@ -3023,11 +3133,11 @@
     </row>
     <row r="33" spans="1:29">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s"/>
       <c r="C33" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s"/>
       <c r="E33" t="s"/>
@@ -3038,10 +3148,10 @@
       <c r="J33" t="s"/>
       <c r="K33" t="s"/>
       <c r="L33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M33" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N33" t="s"/>
       <c r="O33" t="s"/>
@@ -3062,11 +3172,11 @@
     </row>
     <row r="34" spans="1:29">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s"/>
       <c r="C34" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D34" t="s"/>
       <c r="E34" t="s"/>
@@ -3077,10 +3187,10 @@
       <c r="J34" t="s"/>
       <c r="K34" t="s"/>
       <c r="L34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N34" t="s"/>
       <c r="O34" t="s"/>
@@ -3101,11 +3211,11 @@
     </row>
     <row r="35" spans="1:29">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35" t="s"/>
       <c r="C35" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D35" t="s"/>
       <c r="E35" t="s"/>
@@ -3116,10 +3226,10 @@
       <c r="J35" t="s"/>
       <c r="K35" t="s"/>
       <c r="L35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="N35" t="s"/>
       <c r="O35" t="s"/>
@@ -3140,11 +3250,11 @@
     </row>
     <row r="36" spans="1:29">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B36" t="s"/>
       <c r="C36" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D36" t="s"/>
       <c r="E36" t="s"/>
@@ -3155,10 +3265,10 @@
       <c r="J36" t="s"/>
       <c r="K36" t="s"/>
       <c r="L36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N36" t="s"/>
       <c r="O36" t="s"/>
@@ -3179,11 +3289,11 @@
     </row>
     <row r="37" spans="1:29">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B37" t="s"/>
       <c r="C37" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s"/>
       <c r="E37" t="s"/>
@@ -3194,10 +3304,10 @@
       <c r="J37" t="s"/>
       <c r="K37" t="s"/>
       <c r="L37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M37" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N37" t="s"/>
       <c r="O37" t="s"/>
@@ -3218,11 +3328,11 @@
     </row>
     <row r="38" spans="1:29">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B38" t="s"/>
       <c r="C38" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D38" t="s"/>
       <c r="E38" t="s"/>
@@ -3233,10 +3343,10 @@
       <c r="J38" t="s"/>
       <c r="K38" t="s"/>
       <c r="L38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M38" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N38" t="s"/>
       <c r="O38" t="s"/>
@@ -3257,11 +3367,11 @@
     </row>
     <row r="39" spans="1:29">
       <c r="A39" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s"/>
       <c r="C39" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D39" t="s"/>
       <c r="E39" t="s"/>
@@ -3272,10 +3382,10 @@
       <c r="J39" t="s"/>
       <c r="K39" t="s"/>
       <c r="L39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N39" t="s"/>
       <c r="O39" t="s"/>
@@ -3296,11 +3406,11 @@
     </row>
     <row r="40" spans="1:29">
       <c r="A40" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s"/>
       <c r="C40" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D40" t="s"/>
       <c r="E40" t="s"/>
@@ -3311,10 +3421,10 @@
       <c r="J40" t="s"/>
       <c r="K40" t="s"/>
       <c r="L40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M40" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N40" t="s"/>
       <c r="O40" t="s"/>
@@ -3335,11 +3445,11 @@
     </row>
     <row r="41" spans="1:29">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s"/>
       <c r="C41" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s"/>
       <c r="E41" t="s"/>
@@ -3350,10 +3460,10 @@
       <c r="J41" t="s"/>
       <c r="K41" t="s"/>
       <c r="L41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M41" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N41" t="s"/>
       <c r="O41" t="s"/>
@@ -3374,11 +3484,11 @@
     </row>
     <row r="42" spans="1:29">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B42" t="s"/>
       <c r="C42" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" t="s"/>
       <c r="E42" t="s"/>
@@ -3389,10 +3499,10 @@
       <c r="J42" t="s"/>
       <c r="K42" t="s"/>
       <c r="L42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M42" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N42" t="s"/>
       <c r="O42" t="s"/>
@@ -3413,11 +3523,11 @@
     </row>
     <row r="43" spans="1:29">
       <c r="A43" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s"/>
       <c r="C43" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D43" t="s"/>
       <c r="E43" t="s"/>
@@ -3428,10 +3538,10 @@
       <c r="J43" t="s"/>
       <c r="K43" t="s"/>
       <c r="L43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M43" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N43" t="s"/>
       <c r="O43" t="s"/>
@@ -3452,11 +3562,11 @@
     </row>
     <row r="44" spans="1:29">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s"/>
       <c r="C44" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s"/>
       <c r="E44" t="s"/>
@@ -3467,10 +3577,10 @@
       <c r="J44" t="s"/>
       <c r="K44" t="s"/>
       <c r="L44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M44" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N44" t="s"/>
       <c r="O44" t="s"/>
@@ -3491,11 +3601,11 @@
     </row>
     <row r="45" spans="1:29">
       <c r="A45" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B45" t="s"/>
       <c r="C45" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s"/>
       <c r="E45" t="s"/>
@@ -3506,10 +3616,10 @@
       <c r="J45" t="s"/>
       <c r="K45" t="s"/>
       <c r="L45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M45" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N45" t="s"/>
       <c r="O45" t="s"/>
@@ -3530,11 +3640,11 @@
     </row>
     <row r="46" spans="1:29">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B46" t="s"/>
       <c r="C46" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s"/>
       <c r="E46" t="s"/>
@@ -3545,10 +3655,10 @@
       <c r="J46" t="s"/>
       <c r="K46" t="s"/>
       <c r="L46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M46" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N46" t="s"/>
       <c r="O46" t="s"/>
@@ -3569,11 +3679,11 @@
     </row>
     <row r="47" spans="1:29">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B47" t="s"/>
       <c r="C47" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s"/>
       <c r="E47" t="s"/>
@@ -3584,10 +3694,10 @@
       <c r="J47" t="s"/>
       <c r="K47" t="s"/>
       <c r="L47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M47" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N47" t="s"/>
       <c r="O47" t="s"/>
@@ -3608,11 +3718,11 @@
     </row>
     <row r="48" spans="1:29">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s"/>
       <c r="C48" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s"/>
       <c r="E48" t="s"/>
@@ -3623,10 +3733,10 @@
       <c r="J48" t="s"/>
       <c r="K48" t="s"/>
       <c r="L48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N48" t="s"/>
       <c r="O48" t="s"/>
@@ -3647,11 +3757,11 @@
     </row>
     <row r="49" spans="1:29">
       <c r="A49" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B49" t="s"/>
       <c r="C49" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D49" t="s"/>
       <c r="E49" t="s"/>
@@ -3662,10 +3772,10 @@
       <c r="J49" t="s"/>
       <c r="K49" t="s"/>
       <c r="L49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N49" t="s"/>
       <c r="O49" t="s"/>
@@ -3686,11 +3796,11 @@
     </row>
     <row r="50" spans="1:29">
       <c r="A50" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B50" t="s"/>
       <c r="C50" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s"/>
       <c r="E50" t="s"/>
@@ -3701,10 +3811,10 @@
       <c r="J50" t="s"/>
       <c r="K50" t="s"/>
       <c r="L50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M50" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N50" t="s"/>
       <c r="O50" t="s"/>
@@ -3725,11 +3835,11 @@
     </row>
     <row r="51" spans="1:29">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B51" t="s"/>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D51" t="s"/>
       <c r="E51" t="s"/>
@@ -3740,10 +3850,10 @@
       <c r="J51" t="s"/>
       <c r="K51" t="s"/>
       <c r="L51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M51" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N51" t="s"/>
       <c r="O51" t="s"/>
@@ -3764,11 +3874,11 @@
     </row>
     <row r="52" spans="1:29">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B52" t="s"/>
       <c r="C52" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D52" t="s"/>
       <c r="E52" t="s"/>
@@ -3779,10 +3889,10 @@
       <c r="J52" t="s"/>
       <c r="K52" t="s"/>
       <c r="L52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M52" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N52" t="s"/>
       <c r="O52" t="s"/>
@@ -3803,11 +3913,11 @@
     </row>
     <row r="53" spans="1:29">
       <c r="A53" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s"/>
       <c r="C53" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D53" t="s"/>
       <c r="E53" t="s"/>
@@ -3818,10 +3928,10 @@
       <c r="J53" t="s"/>
       <c r="K53" t="s"/>
       <c r="L53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M53" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N53" t="s"/>
       <c r="O53" t="s"/>
@@ -3842,11 +3952,11 @@
     </row>
     <row r="54" spans="1:29">
       <c r="A54" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B54" t="s"/>
       <c r="C54" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s"/>
       <c r="E54" t="s"/>
@@ -3857,10 +3967,10 @@
       <c r="J54" t="s"/>
       <c r="K54" t="s"/>
       <c r="L54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M54" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="N54" t="s"/>
       <c r="O54" t="s"/>
@@ -3881,11 +3991,11 @@
     </row>
     <row r="55" spans="1:29">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" t="s"/>
       <c r="C55" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D55" t="s"/>
       <c r="E55" t="s"/>
@@ -3896,10 +4006,10 @@
       <c r="J55" t="s"/>
       <c r="K55" t="s"/>
       <c r="L55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M55" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N55" t="s"/>
       <c r="O55" t="s"/>
@@ -3920,11 +4030,11 @@
     </row>
     <row r="56" spans="1:29">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" t="s"/>
       <c r="C56" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s"/>
       <c r="E56" t="s"/>
@@ -3935,10 +4045,10 @@
       <c r="J56" t="s"/>
       <c r="K56" t="s"/>
       <c r="L56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M56" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="N56" t="s"/>
       <c r="O56" t="s"/>
@@ -3959,11 +4069,11 @@
     </row>
     <row r="57" spans="1:29">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s"/>
       <c r="C57" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D57" t="s"/>
       <c r="E57" t="s"/>
@@ -3974,10 +4084,10 @@
       <c r="J57" t="s"/>
       <c r="K57" t="s"/>
       <c r="L57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N57" t="s"/>
       <c r="O57" t="s"/>
@@ -3998,11 +4108,11 @@
     </row>
     <row r="58" spans="1:29">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B58" t="s"/>
       <c r="C58" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s"/>
       <c r="E58" t="s"/>
@@ -4013,10 +4123,10 @@
       <c r="J58" t="s"/>
       <c r="K58" t="s"/>
       <c r="L58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M58" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N58" t="s"/>
       <c r="O58" t="s"/>
@@ -4037,13 +4147,15 @@
     </row>
     <row r="59" spans="1:29">
       <c r="A59" t="s">
-        <v>163</v>
-      </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="n">
-        <v>53</v>
-      </c>
-      <c r="D59" t="s"/>
+        <v>164</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s"/>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
       <c r="E59" t="s"/>
       <c r="F59" t="s"/>
       <c r="G59" t="s"/>
@@ -4051,12 +4163,8 @@
       <c r="I59" t="s"/>
       <c r="J59" t="s"/>
       <c r="K59" t="s"/>
-      <c r="L59" t="s">
-        <v>164</v>
-      </c>
-      <c r="M59" t="s">
-        <v>164</v>
-      </c>
+      <c r="L59" t="s"/>
+      <c r="M59" t="s"/>
       <c r="N59" t="s"/>
       <c r="O59" t="s"/>
       <c r="P59" t="s"/>
@@ -4078,13 +4186,11 @@
       <c r="A60" t="s">
         <v>165</v>
       </c>
-      <c r="B60" t="s">
-        <v>163</v>
-      </c>
-      <c r="C60" t="s"/>
-      <c r="D60" t="s">
-        <v>43</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="n">
+        <v>54</v>
+      </c>
+      <c r="D60" t="s"/>
       <c r="E60" t="s"/>
       <c r="F60" t="s"/>
       <c r="G60" t="s"/>
@@ -4092,8 +4198,12 @@
       <c r="I60" t="s"/>
       <c r="J60" t="s"/>
       <c r="K60" t="s"/>
-      <c r="L60" t="s"/>
-      <c r="M60" t="s"/>
+      <c r="L60" t="s">
+        <v>166</v>
+      </c>
+      <c r="M60" t="s">
+        <v>166</v>
+      </c>
       <c r="N60" t="s"/>
       <c r="O60" t="s"/>
       <c r="P60" t="s"/>
@@ -4113,11 +4223,11 @@
     </row>
     <row r="61" spans="1:29">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s"/>
       <c r="C61" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s"/>
       <c r="E61" t="s"/>
@@ -4128,10 +4238,10 @@
       <c r="J61" t="s"/>
       <c r="K61" t="s"/>
       <c r="L61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M61" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N61" t="s"/>
       <c r="O61" t="s"/>
@@ -4152,11 +4262,11 @@
     </row>
     <row r="62" spans="1:29">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s"/>
       <c r="C62" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D62" t="s"/>
       <c r="E62" t="s"/>
@@ -4167,10 +4277,10 @@
       <c r="J62" t="s"/>
       <c r="K62" t="s"/>
       <c r="L62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M62" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="N62" t="s"/>
       <c r="O62" t="s"/>
@@ -4191,11 +4301,11 @@
     </row>
     <row r="63" spans="1:29">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s"/>
       <c r="C63" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D63" t="s"/>
       <c r="E63" t="s"/>
@@ -4206,10 +4316,10 @@
       <c r="J63" t="s"/>
       <c r="K63" t="s"/>
       <c r="L63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M63" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N63" t="s"/>
       <c r="O63" t="s"/>
@@ -4230,11 +4340,11 @@
     </row>
     <row r="64" spans="1:29">
       <c r="A64" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s"/>
       <c r="C64" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s"/>
       <c r="E64" t="s"/>
@@ -4245,10 +4355,10 @@
       <c r="J64" t="s"/>
       <c r="K64" t="s"/>
       <c r="L64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M64" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N64" t="s"/>
       <c r="O64" t="s"/>
@@ -4269,11 +4379,11 @@
     </row>
     <row r="65" spans="1:29">
       <c r="A65" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B65" t="s"/>
       <c r="C65" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D65" t="s"/>
       <c r="E65" t="s"/>
@@ -4284,10 +4394,10 @@
       <c r="J65" t="s"/>
       <c r="K65" t="s"/>
       <c r="L65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M65" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N65" t="s"/>
       <c r="O65" t="s"/>
@@ -4308,11 +4418,11 @@
     </row>
     <row r="66" spans="1:29">
       <c r="A66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s"/>
       <c r="C66" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s"/>
       <c r="E66" t="s"/>
@@ -4323,10 +4433,10 @@
       <c r="J66" t="s"/>
       <c r="K66" t="s"/>
       <c r="L66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M66" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N66" t="s"/>
       <c r="O66" t="s"/>
@@ -4347,11 +4457,11 @@
     </row>
     <row r="67" spans="1:29">
       <c r="A67" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B67" t="s"/>
       <c r="C67" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D67" t="s"/>
       <c r="E67" t="s"/>
@@ -4362,10 +4472,10 @@
       <c r="J67" t="s"/>
       <c r="K67" t="s"/>
       <c r="L67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M67" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N67" t="s"/>
       <c r="O67" t="s"/>
@@ -4386,11 +4496,11 @@
     </row>
     <row r="68" spans="1:29">
       <c r="A68" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B68" t="s"/>
       <c r="C68" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D68" t="s"/>
       <c r="E68" t="s"/>
@@ -4401,10 +4511,10 @@
       <c r="J68" t="s"/>
       <c r="K68" t="s"/>
       <c r="L68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N68" t="s"/>
       <c r="O68" t="s"/>
@@ -4425,11 +4535,11 @@
     </row>
     <row r="69" spans="1:29">
       <c r="A69" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s"/>
       <c r="C69" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D69" t="s"/>
       <c r="E69" t="s"/>
@@ -4440,10 +4550,10 @@
       <c r="J69" t="s"/>
       <c r="K69" t="s"/>
       <c r="L69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M69" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N69" t="s"/>
       <c r="O69" t="s"/>
@@ -4464,11 +4574,11 @@
     </row>
     <row r="70" spans="1:29">
       <c r="A70" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B70" t="s"/>
       <c r="C70" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D70" t="s"/>
       <c r="E70" t="s"/>
@@ -4479,10 +4589,10 @@
       <c r="J70" t="s"/>
       <c r="K70" t="s"/>
       <c r="L70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M70" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N70" t="s"/>
       <c r="O70" t="s"/>
@@ -4503,11 +4613,11 @@
     </row>
     <row r="71" spans="1:29">
       <c r="A71" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B71" t="s"/>
       <c r="C71" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D71" t="s"/>
       <c r="E71" t="s"/>
@@ -4518,10 +4628,10 @@
       <c r="J71" t="s"/>
       <c r="K71" t="s"/>
       <c r="L71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M71" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N71" t="s"/>
       <c r="O71" t="s"/>
@@ -4542,11 +4652,11 @@
     </row>
     <row r="72" spans="1:29">
       <c r="A72" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s"/>
       <c r="C72" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s"/>
       <c r="E72" t="s"/>
@@ -4557,10 +4667,10 @@
       <c r="J72" t="s"/>
       <c r="K72" t="s"/>
       <c r="L72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N72" t="s"/>
       <c r="O72" t="s"/>
@@ -4581,11 +4691,11 @@
     </row>
     <row r="73" spans="1:29">
       <c r="A73" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B73" t="s"/>
       <c r="C73" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s"/>
       <c r="E73" t="s"/>
@@ -4596,10 +4706,10 @@
       <c r="J73" t="s"/>
       <c r="K73" t="s"/>
       <c r="L73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M73" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N73" t="s"/>
       <c r="O73" t="s"/>
@@ -4620,11 +4730,11 @@
     </row>
     <row r="74" spans="1:29">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B74" t="s"/>
       <c r="C74" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s"/>
       <c r="E74" t="s"/>
@@ -4635,10 +4745,10 @@
       <c r="J74" t="s"/>
       <c r="K74" t="s"/>
       <c r="L74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N74" t="s"/>
       <c r="O74" t="s"/>
@@ -4659,11 +4769,11 @@
     </row>
     <row r="75" spans="1:29">
       <c r="A75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s"/>
       <c r="C75" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D75" t="s"/>
       <c r="E75" t="s"/>
@@ -4674,10 +4784,10 @@
       <c r="J75" t="s"/>
       <c r="K75" t="s"/>
       <c r="L75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M75" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N75" t="s"/>
       <c r="O75" t="s"/>
@@ -4698,11 +4808,11 @@
     </row>
     <row r="76" spans="1:29">
       <c r="A76" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B76" t="s"/>
       <c r="C76" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D76" t="s"/>
       <c r="E76" t="s"/>
@@ -4713,10 +4823,10 @@
       <c r="J76" t="s"/>
       <c r="K76" t="s"/>
       <c r="L76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M76" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N76" t="s"/>
       <c r="O76" t="s"/>
@@ -4737,11 +4847,11 @@
     </row>
     <row r="77" spans="1:29">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B77" t="s"/>
       <c r="C77" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D77" t="s"/>
       <c r="E77" t="s"/>
@@ -4752,10 +4862,10 @@
       <c r="J77" t="s"/>
       <c r="K77" t="s"/>
       <c r="L77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M77" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N77" t="s"/>
       <c r="O77" t="s"/>
@@ -4776,11 +4886,11 @@
     </row>
     <row r="78" spans="1:29">
       <c r="A78" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B78" t="s"/>
       <c r="C78" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D78" t="s"/>
       <c r="E78" t="s"/>
@@ -4791,10 +4901,10 @@
       <c r="J78" t="s"/>
       <c r="K78" t="s"/>
       <c r="L78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N78" t="s"/>
       <c r="O78" t="s"/>
@@ -4815,13 +4925,15 @@
     </row>
     <row r="79" spans="1:29">
       <c r="A79" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="n">
-        <v>72</v>
-      </c>
-      <c r="D79" t="s"/>
+        <v>203</v>
+      </c>
+      <c r="B79" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" t="s"/>
+      <c r="D79" t="s">
+        <v>52</v>
+      </c>
       <c r="E79" t="s"/>
       <c r="F79" t="s"/>
       <c r="G79" t="s"/>
@@ -4829,12 +4941,8 @@
       <c r="I79" t="s"/>
       <c r="J79" t="s"/>
       <c r="K79" t="s"/>
-      <c r="L79" t="s">
-        <v>203</v>
-      </c>
-      <c r="M79" t="s">
-        <v>203</v>
-      </c>
+      <c r="L79" t="s"/>
+      <c r="M79" t="s"/>
       <c r="N79" t="s"/>
       <c r="O79" t="s"/>
       <c r="P79" t="s"/>
@@ -4856,13 +4964,11 @@
       <c r="A80" t="s">
         <v>204</v>
       </c>
-      <c r="B80" t="s">
-        <v>202</v>
-      </c>
-      <c r="C80" t="s"/>
-      <c r="D80" t="s">
-        <v>43</v>
-      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="n">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s"/>
       <c r="E80" t="s"/>
       <c r="F80" t="s"/>
       <c r="G80" t="s"/>
@@ -4870,8 +4976,12 @@
       <c r="I80" t="s"/>
       <c r="J80" t="s"/>
       <c r="K80" t="s"/>
-      <c r="L80" t="s"/>
-      <c r="M80" t="s"/>
+      <c r="L80" t="s">
+        <v>205</v>
+      </c>
+      <c r="M80" t="s">
+        <v>205</v>
+      </c>
       <c r="N80" t="s"/>
       <c r="O80" t="s"/>
       <c r="P80" t="s"/>
@@ -4891,11 +5001,11 @@
     </row>
     <row r="81" spans="1:29">
       <c r="A81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B81" t="s"/>
       <c r="C81" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D81" t="s"/>
       <c r="E81" t="s"/>
@@ -4906,10 +5016,10 @@
       <c r="J81" t="s"/>
       <c r="K81" t="s"/>
       <c r="L81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="N81" t="s"/>
       <c r="O81" t="s"/>
@@ -4930,13 +5040,15 @@
     </row>
     <row r="82" spans="1:29">
       <c r="A82" t="s">
-        <v>207</v>
-      </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="n">
-        <v>74</v>
-      </c>
-      <c r="D82" t="s"/>
+        <v>208</v>
+      </c>
+      <c r="B82" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82" t="s"/>
+      <c r="D82" t="s">
+        <v>52</v>
+      </c>
       <c r="E82" t="s"/>
       <c r="F82" t="s"/>
       <c r="G82" t="s"/>
@@ -4944,12 +5056,8 @@
       <c r="I82" t="s"/>
       <c r="J82" t="s"/>
       <c r="K82" t="s"/>
-      <c r="L82" t="s">
-        <v>208</v>
-      </c>
-      <c r="M82" t="s">
-        <v>208</v>
-      </c>
+      <c r="L82" t="s"/>
+      <c r="M82" t="s"/>
       <c r="N82" t="s"/>
       <c r="O82" t="s"/>
       <c r="P82" t="s"/>
@@ -4971,13 +5079,11 @@
       <c r="A83" t="s">
         <v>209</v>
       </c>
-      <c r="B83" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" t="s"/>
-      <c r="D83" t="s">
-        <v>43</v>
-      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="n">
+        <v>75</v>
+      </c>
+      <c r="D83" t="s"/>
       <c r="E83" t="s"/>
       <c r="F83" t="s"/>
       <c r="G83" t="s"/>
@@ -4985,8 +5091,12 @@
       <c r="I83" t="s"/>
       <c r="J83" t="s"/>
       <c r="K83" t="s"/>
-      <c r="L83" t="s"/>
-      <c r="M83" t="s"/>
+      <c r="L83" t="s">
+        <v>210</v>
+      </c>
+      <c r="M83" t="s">
+        <v>210</v>
+      </c>
       <c r="N83" t="s"/>
       <c r="O83" t="s"/>
       <c r="P83" t="s"/>
@@ -5006,11 +5116,11 @@
     </row>
     <row r="84" spans="1:29">
       <c r="A84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B84" t="s"/>
       <c r="C84" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D84" t="s"/>
       <c r="E84" t="s"/>
@@ -5021,10 +5131,10 @@
       <c r="J84" t="s"/>
       <c r="K84" t="s"/>
       <c r="L84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N84" t="s"/>
       <c r="O84" t="s"/>
@@ -5045,11 +5155,11 @@
     </row>
     <row r="85" spans="1:29">
       <c r="A85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B85" t="s"/>
       <c r="C85" t="n">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D85" t="s"/>
       <c r="E85" t="s"/>
@@ -5060,10 +5170,10 @@
       <c r="J85" t="s"/>
       <c r="K85" t="s"/>
       <c r="L85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M85" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N85" t="s"/>
       <c r="O85" t="s"/>
@@ -5084,13 +5194,15 @@
     </row>
     <row r="86" spans="1:29">
       <c r="A86" t="s">
-        <v>214</v>
-      </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="n">
-        <v>77</v>
-      </c>
-      <c r="D86" t="s"/>
+        <v>215</v>
+      </c>
+      <c r="B86" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" t="s"/>
+      <c r="D86" t="s">
+        <v>52</v>
+      </c>
       <c r="E86" t="s"/>
       <c r="F86" t="s"/>
       <c r="G86" t="s"/>
@@ -5098,12 +5210,8 @@
       <c r="I86" t="s"/>
       <c r="J86" t="s"/>
       <c r="K86" t="s"/>
-      <c r="L86" t="s">
-        <v>215</v>
-      </c>
-      <c r="M86" t="s">
-        <v>215</v>
-      </c>
+      <c r="L86" t="s"/>
+      <c r="M86" t="s"/>
       <c r="N86" t="s"/>
       <c r="O86" t="s"/>
       <c r="P86" t="s"/>
@@ -5125,13 +5233,11 @@
       <c r="A87" t="s">
         <v>216</v>
       </c>
-      <c r="B87" t="s">
-        <v>214</v>
-      </c>
-      <c r="C87" t="s"/>
-      <c r="D87" t="s">
-        <v>43</v>
-      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="n">
+        <v>78</v>
+      </c>
+      <c r="D87" t="s"/>
       <c r="E87" t="s"/>
       <c r="F87" t="s"/>
       <c r="G87" t="s"/>
@@ -5139,8 +5245,12 @@
       <c r="I87" t="s"/>
       <c r="J87" t="s"/>
       <c r="K87" t="s"/>
-      <c r="L87" t="s"/>
-      <c r="M87" t="s"/>
+      <c r="L87" t="s">
+        <v>217</v>
+      </c>
+      <c r="M87" t="s">
+        <v>217</v>
+      </c>
       <c r="N87" t="s"/>
       <c r="O87" t="s"/>
       <c r="P87" t="s"/>
@@ -5160,11 +5270,11 @@
     </row>
     <row r="88" spans="1:29">
       <c r="A88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B88" t="s"/>
       <c r="C88" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D88" t="s"/>
       <c r="E88" t="s"/>
@@ -5175,10 +5285,10 @@
       <c r="J88" t="s"/>
       <c r="K88" t="s"/>
       <c r="L88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N88" t="s"/>
       <c r="O88" t="s"/>
@@ -5199,11 +5309,11 @@
     </row>
     <row r="89" spans="1:29">
       <c r="A89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B89" t="s"/>
       <c r="C89" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D89" t="s"/>
       <c r="E89" t="s"/>
@@ -5214,10 +5324,10 @@
       <c r="J89" t="s"/>
       <c r="K89" t="s"/>
       <c r="L89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N89" t="s"/>
       <c r="O89" t="s"/>
@@ -5238,11 +5348,11 @@
     </row>
     <row r="90" spans="1:29">
       <c r="A90" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B90" t="s"/>
       <c r="C90" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D90" t="s"/>
       <c r="E90" t="s"/>
@@ -5253,10 +5363,10 @@
       <c r="J90" t="s"/>
       <c r="K90" t="s"/>
       <c r="L90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N90" t="s"/>
       <c r="O90" t="s"/>
@@ -5277,11 +5387,11 @@
     </row>
     <row r="91" spans="1:29">
       <c r="A91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B91" t="s"/>
       <c r="C91" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D91" t="s"/>
       <c r="E91" t="s"/>
@@ -5292,10 +5402,10 @@
       <c r="J91" t="s"/>
       <c r="K91" t="s"/>
       <c r="L91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="N91" t="s"/>
       <c r="O91" t="s"/>
@@ -5316,11 +5426,11 @@
     </row>
     <row r="92" spans="1:29">
       <c r="A92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B92" t="s"/>
       <c r="C92" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D92" t="s"/>
       <c r="E92" t="s"/>
@@ -5331,10 +5441,10 @@
       <c r="J92" t="s"/>
       <c r="K92" t="s"/>
       <c r="L92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N92" t="s"/>
       <c r="O92" t="s"/>
@@ -5355,11 +5465,11 @@
     </row>
     <row r="93" spans="1:29">
       <c r="A93" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B93" t="s"/>
       <c r="C93" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D93" t="s"/>
       <c r="E93" t="s"/>
@@ -5370,10 +5480,10 @@
       <c r="J93" t="s"/>
       <c r="K93" t="s"/>
       <c r="L93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M93" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N93" t="s"/>
       <c r="O93" t="s"/>
@@ -5394,11 +5504,11 @@
     </row>
     <row r="94" spans="1:29">
       <c r="A94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B94" t="s"/>
       <c r="C94" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D94" t="s"/>
       <c r="E94" t="s"/>
@@ -5409,10 +5519,10 @@
       <c r="J94" t="s"/>
       <c r="K94" t="s"/>
       <c r="L94" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M94" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N94" t="s"/>
       <c r="O94" t="s"/>
@@ -5433,11 +5543,11 @@
     </row>
     <row r="95" spans="1:29">
       <c r="A95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B95" t="s"/>
       <c r="C95" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D95" t="s"/>
       <c r="E95" t="s"/>
@@ -5448,10 +5558,10 @@
       <c r="J95" t="s"/>
       <c r="K95" t="s"/>
       <c r="L95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M95" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N95" t="s"/>
       <c r="O95" t="s"/>
@@ -5472,11 +5582,11 @@
     </row>
     <row r="96" spans="1:29">
       <c r="A96" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B96" t="s"/>
       <c r="C96" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D96" t="s"/>
       <c r="E96" t="s"/>
@@ -5487,10 +5597,10 @@
       <c r="J96" t="s"/>
       <c r="K96" t="s"/>
       <c r="L96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N96" t="s"/>
       <c r="O96" t="s"/>
@@ -5511,11 +5621,11 @@
     </row>
     <row r="97" spans="1:29">
       <c r="A97" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B97" t="s"/>
       <c r="C97" t="n">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D97" t="s"/>
       <c r="E97" t="s"/>
@@ -5526,10 +5636,10 @@
       <c r="J97" t="s"/>
       <c r="K97" t="s"/>
       <c r="L97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M97" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N97" t="s"/>
       <c r="O97" t="s"/>
@@ -5550,11 +5660,11 @@
     </row>
     <row r="98" spans="1:29">
       <c r="A98" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B98" t="s"/>
       <c r="C98" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D98" t="s"/>
       <c r="E98" t="s"/>
@@ -5565,10 +5675,10 @@
       <c r="J98" t="s"/>
       <c r="K98" t="s"/>
       <c r="L98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M98" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="N98" t="s"/>
       <c r="O98" t="s"/>
@@ -5589,11 +5699,11 @@
     </row>
     <row r="99" spans="1:29">
       <c r="A99" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B99" t="s"/>
       <c r="C99" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D99" t="s"/>
       <c r="E99" t="s"/>
@@ -5604,10 +5714,10 @@
       <c r="J99" t="s"/>
       <c r="K99" t="s"/>
       <c r="L99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N99" t="s"/>
       <c r="O99" t="s"/>
@@ -5628,13 +5738,15 @@
     </row>
     <row r="100" spans="1:29">
       <c r="A100" t="s">
-        <v>241</v>
-      </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="n">
-        <v>90</v>
-      </c>
-      <c r="D100" t="s"/>
+        <v>242</v>
+      </c>
+      <c r="B100" t="s">
+        <v>240</v>
+      </c>
+      <c r="C100" t="s"/>
+      <c r="D100" t="s">
+        <v>52</v>
+      </c>
       <c r="E100" t="s"/>
       <c r="F100" t="s"/>
       <c r="G100" t="s"/>
@@ -5642,12 +5754,8 @@
       <c r="I100" t="s"/>
       <c r="J100" t="s"/>
       <c r="K100" t="s"/>
-      <c r="L100" t="s">
-        <v>242</v>
-      </c>
-      <c r="M100" t="s">
-        <v>242</v>
-      </c>
+      <c r="L100" t="s"/>
+      <c r="M100" t="s"/>
       <c r="N100" t="s"/>
       <c r="O100" t="s"/>
       <c r="P100" t="s"/>
@@ -5669,13 +5777,11 @@
       <c r="A101" t="s">
         <v>243</v>
       </c>
-      <c r="B101" t="s">
-        <v>241</v>
-      </c>
-      <c r="C101" t="s"/>
-      <c r="D101" t="s">
-        <v>43</v>
-      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="n">
+        <v>91</v>
+      </c>
+      <c r="D101" t="s"/>
       <c r="E101" t="s"/>
       <c r="F101" t="s"/>
       <c r="G101" t="s"/>
@@ -5683,8 +5789,12 @@
       <c r="I101" t="s"/>
       <c r="J101" t="s"/>
       <c r="K101" t="s"/>
-      <c r="L101" t="s"/>
-      <c r="M101" t="s"/>
+      <c r="L101" t="s">
+        <v>244</v>
+      </c>
+      <c r="M101" t="s">
+        <v>244</v>
+      </c>
       <c r="N101" t="s"/>
       <c r="O101" t="s"/>
       <c r="P101" t="s"/>
@@ -5704,11 +5814,11 @@
     </row>
     <row r="102" spans="1:29">
       <c r="A102" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B102" t="s"/>
       <c r="C102" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D102" t="s"/>
       <c r="E102" t="s"/>
@@ -5719,10 +5829,10 @@
       <c r="J102" t="s"/>
       <c r="K102" t="s"/>
       <c r="L102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N102" t="s"/>
       <c r="O102" t="s"/>
@@ -5743,11 +5853,11 @@
     </row>
     <row r="103" spans="1:29">
       <c r="A103" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B103" t="s"/>
       <c r="C103" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D103" t="s"/>
       <c r="E103" t="s"/>
@@ -5758,10 +5868,10 @@
       <c r="J103" t="s"/>
       <c r="K103" t="s"/>
       <c r="L103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N103" t="s"/>
       <c r="O103" t="s"/>
@@ -5782,11 +5892,11 @@
     </row>
     <row r="104" spans="1:29">
       <c r="A104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B104" t="s"/>
       <c r="C104" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D104" t="s"/>
       <c r="E104" t="s"/>
@@ -5797,10 +5907,10 @@
       <c r="J104" t="s"/>
       <c r="K104" t="s"/>
       <c r="L104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N104" t="s"/>
       <c r="O104" t="s"/>
@@ -5821,11 +5931,11 @@
     </row>
     <row r="105" spans="1:29">
       <c r="A105" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B105" t="s"/>
       <c r="C105" t="n">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D105" t="s"/>
       <c r="E105" t="s"/>
@@ -5836,10 +5946,10 @@
       <c r="J105" t="s"/>
       <c r="K105" t="s"/>
       <c r="L105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M105" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N105" t="s"/>
       <c r="O105" t="s"/>
@@ -5860,11 +5970,11 @@
     </row>
     <row r="106" spans="1:29">
       <c r="A106" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B106" t="s"/>
       <c r="C106" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D106" t="s"/>
       <c r="E106" t="s"/>
@@ -5875,10 +5985,10 @@
       <c r="J106" t="s"/>
       <c r="K106" t="s"/>
       <c r="L106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M106" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="N106" t="s"/>
       <c r="O106" t="s"/>
@@ -5899,11 +6009,11 @@
     </row>
     <row r="107" spans="1:29">
       <c r="A107" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B107" t="s"/>
       <c r="C107" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D107" t="s"/>
       <c r="E107" t="s"/>
@@ -5914,10 +6024,10 @@
       <c r="J107" t="s"/>
       <c r="K107" t="s"/>
       <c r="L107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N107" t="s"/>
       <c r="O107" t="s"/>
@@ -5938,11 +6048,11 @@
     </row>
     <row r="108" spans="1:29">
       <c r="A108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B108" t="s"/>
       <c r="C108" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D108" t="s"/>
       <c r="E108" t="s"/>
@@ -5953,10 +6063,10 @@
       <c r="J108" t="s"/>
       <c r="K108" t="s"/>
       <c r="L108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M108" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N108" t="s"/>
       <c r="O108" t="s"/>
@@ -5977,11 +6087,11 @@
     </row>
     <row r="109" spans="1:29">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B109" t="s"/>
       <c r="C109" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D109" t="s"/>
       <c r="E109" t="s"/>
@@ -5992,10 +6102,10 @@
       <c r="J109" t="s"/>
       <c r="K109" t="s"/>
       <c r="L109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N109" t="s"/>
       <c r="O109" t="s"/>
@@ -6016,11 +6126,11 @@
     </row>
     <row r="110" spans="1:29">
       <c r="A110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B110" t="s"/>
       <c r="C110" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D110" t="s"/>
       <c r="E110" t="s"/>
@@ -6031,10 +6141,10 @@
       <c r="J110" t="s"/>
       <c r="K110" t="s"/>
       <c r="L110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="N110" t="s"/>
       <c r="O110" t="s"/>
@@ -6055,11 +6165,11 @@
     </row>
     <row r="111" spans="1:29">
       <c r="A111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B111" t="s"/>
       <c r="C111" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D111" t="s"/>
       <c r="E111" t="s"/>
@@ -6070,10 +6180,10 @@
       <c r="J111" t="s"/>
       <c r="K111" t="s"/>
       <c r="L111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M111" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N111" t="s"/>
       <c r="O111" t="s"/>
@@ -6094,11 +6204,11 @@
     </row>
     <row r="112" spans="1:29">
       <c r="A112" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B112" t="s"/>
       <c r="C112" t="n">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D112" t="s"/>
       <c r="E112" t="s"/>
@@ -6109,10 +6219,10 @@
       <c r="J112" t="s"/>
       <c r="K112" t="s"/>
       <c r="L112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N112" t="s"/>
       <c r="O112" t="s"/>
@@ -6133,11 +6243,11 @@
     </row>
     <row r="113" spans="1:29">
       <c r="A113" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B113" t="s"/>
       <c r="C113" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D113" t="s"/>
       <c r="E113" t="s"/>
@@ -6148,10 +6258,10 @@
       <c r="J113" t="s"/>
       <c r="K113" t="s"/>
       <c r="L113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N113" t="s"/>
       <c r="O113" t="s"/>
@@ -6172,11 +6282,11 @@
     </row>
     <row r="114" spans="1:29">
       <c r="A114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B114" t="s"/>
       <c r="C114" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D114" t="s"/>
       <c r="E114" t="s"/>
@@ -6187,10 +6297,10 @@
       <c r="J114" t="s"/>
       <c r="K114" t="s"/>
       <c r="L114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M114" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N114" t="s"/>
       <c r="O114" t="s"/>
@@ -6211,11 +6321,11 @@
     </row>
     <row r="115" spans="1:29">
       <c r="A115" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B115" t="s"/>
       <c r="C115" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D115" t="s"/>
       <c r="E115" t="s"/>
@@ -6226,10 +6336,10 @@
       <c r="J115" t="s"/>
       <c r="K115" t="s"/>
       <c r="L115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M115" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N115" t="s"/>
       <c r="O115" t="s"/>
@@ -6250,11 +6360,11 @@
     </row>
     <row r="116" spans="1:29">
       <c r="A116" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B116" t="s"/>
       <c r="C116" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D116" t="s"/>
       <c r="E116" t="s"/>
@@ -6265,10 +6375,10 @@
       <c r="J116" t="s"/>
       <c r="K116" t="s"/>
       <c r="L116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N116" t="s"/>
       <c r="O116" t="s"/>
@@ -6289,11 +6399,11 @@
     </row>
     <row r="117" spans="1:29">
       <c r="A117" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B117" t="s"/>
       <c r="C117" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D117" t="s"/>
       <c r="E117" t="s"/>
@@ -6304,10 +6414,10 @@
       <c r="J117" t="s"/>
       <c r="K117" t="s"/>
       <c r="L117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M117" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N117" t="s"/>
       <c r="O117" t="s"/>
@@ -6328,11 +6438,11 @@
     </row>
     <row r="118" spans="1:29">
       <c r="A118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B118" t="s"/>
       <c r="C118" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D118" t="s"/>
       <c r="E118" t="s"/>
@@ -6343,10 +6453,10 @@
       <c r="J118" t="s"/>
       <c r="K118" t="s"/>
       <c r="L118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="M118" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N118" t="s"/>
       <c r="O118" t="s"/>
@@ -6367,11 +6477,11 @@
     </row>
     <row r="119" spans="1:29">
       <c r="A119" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B119" t="s"/>
       <c r="C119" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D119" t="s"/>
       <c r="E119" t="s"/>
@@ -6382,10 +6492,10 @@
       <c r="J119" t="s"/>
       <c r="K119" t="s"/>
       <c r="L119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N119" t="s"/>
       <c r="O119" t="s"/>
@@ -6406,11 +6516,11 @@
     </row>
     <row r="120" spans="1:29">
       <c r="A120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B120" t="s"/>
       <c r="C120" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D120" t="s"/>
       <c r="E120" t="s"/>
@@ -6421,10 +6531,10 @@
       <c r="J120" t="s"/>
       <c r="K120" t="s"/>
       <c r="L120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M120" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N120" t="s"/>
       <c r="O120" t="s"/>
@@ -6445,11 +6555,11 @@
     </row>
     <row r="121" spans="1:29">
       <c r="A121" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B121" t="s"/>
       <c r="C121" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D121" t="s"/>
       <c r="E121" t="s"/>
@@ -6460,10 +6570,10 @@
       <c r="J121" t="s"/>
       <c r="K121" t="s"/>
       <c r="L121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M121" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="N121" t="s"/>
       <c r="O121" t="s"/>
@@ -6484,11 +6594,11 @@
     </row>
     <row r="122" spans="1:29">
       <c r="A122" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B122" t="s"/>
       <c r="C122" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D122" t="s"/>
       <c r="E122" t="s"/>
@@ -6499,10 +6609,10 @@
       <c r="J122" t="s"/>
       <c r="K122" t="s"/>
       <c r="L122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M122" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N122" t="s"/>
       <c r="O122" t="s"/>
@@ -6523,11 +6633,11 @@
     </row>
     <row r="123" spans="1:29">
       <c r="A123" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B123" t="s"/>
       <c r="C123" t="n">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D123" t="s"/>
       <c r="E123" t="s"/>
@@ -6538,10 +6648,10 @@
       <c r="J123" t="s"/>
       <c r="K123" t="s"/>
       <c r="L123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M123" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N123" t="s"/>
       <c r="O123" t="s"/>
@@ -6562,11 +6672,11 @@
     </row>
     <row r="124" spans="1:29">
       <c r="A124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B124" t="s"/>
       <c r="C124" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D124" t="s"/>
       <c r="E124" t="s"/>
@@ -6577,10 +6687,10 @@
       <c r="J124" t="s"/>
       <c r="K124" t="s"/>
       <c r="L124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M124" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N124" t="s"/>
       <c r="O124" t="s"/>
@@ -6601,11 +6711,11 @@
     </row>
     <row r="125" spans="1:29">
       <c r="A125" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B125" t="s"/>
       <c r="C125" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D125" t="s"/>
       <c r="E125" t="s"/>
@@ -6616,10 +6726,10 @@
       <c r="J125" t="s"/>
       <c r="K125" t="s"/>
       <c r="L125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="N125" t="s"/>
       <c r="O125" t="s"/>
@@ -6640,11 +6750,11 @@
     </row>
     <row r="126" spans="1:29">
       <c r="A126" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B126" t="s"/>
       <c r="C126" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D126" t="s"/>
       <c r="E126" t="s"/>
@@ -6655,10 +6765,10 @@
       <c r="J126" t="s"/>
       <c r="K126" t="s"/>
       <c r="L126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N126" t="s"/>
       <c r="O126" t="s"/>
@@ -6679,11 +6789,11 @@
     </row>
     <row r="127" spans="1:29">
       <c r="A127" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B127" t="s"/>
       <c r="C127" t="n">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D127" t="s"/>
       <c r="E127" t="s"/>
@@ -6694,10 +6804,10 @@
       <c r="J127" t="s"/>
       <c r="K127" t="s"/>
       <c r="L127" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M127" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N127" t="s"/>
       <c r="O127" t="s"/>
@@ -6718,11 +6828,11 @@
     </row>
     <row r="128" spans="1:29">
       <c r="A128" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B128" t="s"/>
       <c r="C128" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D128" t="s"/>
       <c r="E128" t="s"/>
@@ -6733,10 +6843,10 @@
       <c r="J128" t="s"/>
       <c r="K128" t="s"/>
       <c r="L128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="N128" t="s"/>
       <c r="O128" t="s"/>
@@ -6757,11 +6867,11 @@
     </row>
     <row r="129" spans="1:29">
       <c r="A129" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B129" t="s"/>
       <c r="C129" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D129" t="s"/>
       <c r="E129" t="s"/>
@@ -6772,10 +6882,10 @@
       <c r="J129" t="s"/>
       <c r="K129" t="s"/>
       <c r="L129" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M129" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N129" t="s"/>
       <c r="O129" t="s"/>
@@ -6796,11 +6906,11 @@
     </row>
     <row r="130" spans="1:29">
       <c r="A130" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B130" t="s"/>
       <c r="C130" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D130" t="s"/>
       <c r="E130" t="s"/>
@@ -6811,10 +6921,10 @@
       <c r="J130" t="s"/>
       <c r="K130" t="s"/>
       <c r="L130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M130" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="N130" t="s"/>
       <c r="O130" t="s"/>
@@ -6835,11 +6945,11 @@
     </row>
     <row r="131" spans="1:29">
       <c r="A131" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B131" t="s"/>
       <c r="C131" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D131" t="s"/>
       <c r="E131" t="s"/>
@@ -6850,10 +6960,10 @@
       <c r="J131" t="s"/>
       <c r="K131" t="s"/>
       <c r="L131" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M131" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N131" t="s"/>
       <c r="O131" t="s"/>
@@ -6874,11 +6984,11 @@
     </row>
     <row r="132" spans="1:29">
       <c r="A132" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B132" t="s"/>
       <c r="C132" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D132" t="s"/>
       <c r="E132" t="s"/>
@@ -6889,10 +6999,10 @@
       <c r="J132" t="s"/>
       <c r="K132" t="s"/>
       <c r="L132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M132" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N132" t="s"/>
       <c r="O132" t="s"/>
@@ -6913,11 +7023,11 @@
     </row>
     <row r="133" spans="1:29">
       <c r="A133" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B133" t="s"/>
       <c r="C133" t="n">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D133" t="s"/>
       <c r="E133" t="s"/>
@@ -6928,10 +7038,10 @@
       <c r="J133" t="s"/>
       <c r="K133" t="s"/>
       <c r="L133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M133" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N133" t="s"/>
       <c r="O133" t="s"/>
@@ -6952,11 +7062,11 @@
     </row>
     <row r="134" spans="1:29">
       <c r="A134" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B134" t="s"/>
       <c r="C134" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D134" t="s"/>
       <c r="E134" t="s"/>
@@ -6967,10 +7077,10 @@
       <c r="J134" t="s"/>
       <c r="K134" t="s"/>
       <c r="L134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M134" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N134" t="s"/>
       <c r="O134" t="s"/>
@@ -6991,11 +7101,11 @@
     </row>
     <row r="135" spans="1:29">
       <c r="A135" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B135" t="s"/>
       <c r="C135" t="n">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D135" t="s"/>
       <c r="E135" t="s"/>
@@ -7006,10 +7116,10 @@
       <c r="J135" t="s"/>
       <c r="K135" t="s"/>
       <c r="L135" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M135" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N135" t="s"/>
       <c r="O135" t="s"/>
@@ -7030,11 +7140,11 @@
     </row>
     <row r="136" spans="1:29">
       <c r="A136" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B136" t="s"/>
       <c r="C136" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D136" t="s"/>
       <c r="E136" t="s"/>
@@ -7045,10 +7155,10 @@
       <c r="J136" t="s"/>
       <c r="K136" t="s"/>
       <c r="L136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N136" t="s"/>
       <c r="O136" t="s"/>
@@ -7069,11 +7179,11 @@
     </row>
     <row r="137" spans="1:29">
       <c r="A137" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B137" t="s"/>
       <c r="C137" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D137" t="s"/>
       <c r="E137" t="s"/>
@@ -7084,10 +7194,10 @@
       <c r="J137" t="s"/>
       <c r="K137" t="s"/>
       <c r="L137" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M137" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N137" t="s"/>
       <c r="O137" t="s"/>
@@ -7108,11 +7218,11 @@
     </row>
     <row r="138" spans="1:29">
       <c r="A138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B138" t="s"/>
       <c r="C138" t="n">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D138" t="s"/>
       <c r="E138" t="s"/>
@@ -7123,10 +7233,10 @@
       <c r="J138" t="s"/>
       <c r="K138" t="s"/>
       <c r="L138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N138" t="s"/>
       <c r="O138" t="s"/>
@@ -7147,11 +7257,11 @@
     </row>
     <row r="139" spans="1:29">
       <c r="A139" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B139" t="s"/>
       <c r="C139" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D139" t="s"/>
       <c r="E139" t="s"/>
@@ -7162,10 +7272,10 @@
       <c r="J139" t="s"/>
       <c r="K139" t="s"/>
       <c r="L139" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M139" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N139" t="s"/>
       <c r="O139" t="s"/>
@@ -7186,11 +7296,11 @@
     </row>
     <row r="140" spans="1:29">
       <c r="A140" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B140" t="s"/>
       <c r="C140" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D140" t="s"/>
       <c r="E140" t="s"/>
@@ -7201,10 +7311,10 @@
       <c r="J140" t="s"/>
       <c r="K140" t="s"/>
       <c r="L140" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M140" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N140" t="s"/>
       <c r="O140" t="s"/>
@@ -7225,11 +7335,11 @@
     </row>
     <row r="141" spans="1:29">
       <c r="A141" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B141" t="s"/>
       <c r="C141" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D141" t="s"/>
       <c r="E141" t="s"/>
@@ -7240,10 +7350,10 @@
       <c r="J141" t="s"/>
       <c r="K141" t="s"/>
       <c r="L141" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M141" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N141" t="s"/>
       <c r="O141" t="s"/>
@@ -7264,11 +7374,11 @@
     </row>
     <row r="142" spans="1:29">
       <c r="A142" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B142" t="s"/>
       <c r="C142" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D142" t="s"/>
       <c r="E142" t="s"/>
@@ -7279,10 +7389,10 @@
       <c r="J142" t="s"/>
       <c r="K142" t="s"/>
       <c r="L142" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M142" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N142" t="s"/>
       <c r="O142" t="s"/>
@@ -7303,11 +7413,11 @@
     </row>
     <row r="143" spans="1:29">
       <c r="A143" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B143" t="s"/>
       <c r="C143" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D143" t="s"/>
       <c r="E143" t="s"/>
@@ -7318,10 +7428,10 @@
       <c r="J143" t="s"/>
       <c r="K143" t="s"/>
       <c r="L143" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M143" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N143" t="s"/>
       <c r="O143" t="s"/>
@@ -7342,11 +7452,11 @@
     </row>
     <row r="144" spans="1:29">
       <c r="A144" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B144" t="s"/>
       <c r="C144" t="n">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D144" t="s"/>
       <c r="E144" t="s"/>
@@ -7357,10 +7467,10 @@
       <c r="J144" t="s"/>
       <c r="K144" t="s"/>
       <c r="L144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N144" t="s"/>
       <c r="O144" t="s"/>
@@ -7381,11 +7491,11 @@
     </row>
     <row r="145" spans="1:29">
       <c r="A145" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B145" t="s"/>
       <c r="C145" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D145" t="s"/>
       <c r="E145" t="s"/>
@@ -7396,10 +7506,10 @@
       <c r="J145" t="s"/>
       <c r="K145" t="s"/>
       <c r="L145" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M145" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N145" t="s"/>
       <c r="O145" t="s"/>
@@ -7420,11 +7530,11 @@
     </row>
     <row r="146" spans="1:29">
       <c r="A146" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B146" t="s"/>
       <c r="C146" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D146" t="s"/>
       <c r="E146" t="s"/>
@@ -7435,10 +7545,10 @@
       <c r="J146" t="s"/>
       <c r="K146" t="s"/>
       <c r="L146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M146" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N146" t="s"/>
       <c r="O146" t="s"/>
@@ -7459,11 +7569,11 @@
     </row>
     <row r="147" spans="1:29">
       <c r="A147" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B147" t="s"/>
       <c r="C147" t="n">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D147" t="s"/>
       <c r="E147" t="s"/>
@@ -7474,10 +7584,10 @@
       <c r="J147" t="s"/>
       <c r="K147" t="s"/>
       <c r="L147" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M147" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N147" t="s"/>
       <c r="O147" t="s"/>
@@ -7498,11 +7608,11 @@
     </row>
     <row r="148" spans="1:29">
       <c r="A148" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B148" t="s"/>
       <c r="C148" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D148" t="s"/>
       <c r="E148" t="s"/>
@@ -7513,10 +7623,10 @@
       <c r="J148" t="s"/>
       <c r="K148" t="s"/>
       <c r="L148" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M148" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="N148" t="s"/>
       <c r="O148" t="s"/>
@@ -7537,11 +7647,11 @@
     </row>
     <row r="149" spans="1:29">
       <c r="A149" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B149" t="s"/>
       <c r="C149" t="n">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D149" t="s"/>
       <c r="E149" t="s"/>
@@ -7552,10 +7662,10 @@
       <c r="J149" t="s"/>
       <c r="K149" t="s"/>
       <c r="L149" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M149" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N149" t="s"/>
       <c r="O149" t="s"/>
@@ -7576,11 +7686,11 @@
     </row>
     <row r="150" spans="1:29">
       <c r="A150" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B150" t="s"/>
       <c r="C150" t="n">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D150" t="s"/>
       <c r="E150" t="s"/>
@@ -7591,10 +7701,10 @@
       <c r="J150" t="s"/>
       <c r="K150" t="s"/>
       <c r="L150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M150" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N150" t="s"/>
       <c r="O150" t="s"/>
@@ -7615,11 +7725,11 @@
     </row>
     <row r="151" spans="1:29">
       <c r="A151" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B151" t="s"/>
       <c r="C151" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D151" t="s"/>
       <c r="E151" t="s"/>
@@ -7630,10 +7740,10 @@
       <c r="J151" t="s"/>
       <c r="K151" t="s"/>
       <c r="L151" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M151" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N151" t="s"/>
       <c r="O151" t="s"/>
@@ -7654,11 +7764,11 @@
     </row>
     <row r="152" spans="1:29">
       <c r="A152" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B152" t="s"/>
       <c r="C152" t="n">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D152" t="s"/>
       <c r="E152" t="s"/>
@@ -7669,10 +7779,10 @@
       <c r="J152" t="s"/>
       <c r="K152" t="s"/>
       <c r="L152" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M152" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N152" t="s"/>
       <c r="O152" t="s"/>
@@ -7693,11 +7803,11 @@
     </row>
     <row r="153" spans="1:29">
       <c r="A153" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B153" t="s"/>
       <c r="C153" t="n">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D153" t="s"/>
       <c r="E153" t="s"/>
@@ -7708,10 +7818,10 @@
       <c r="J153" t="s"/>
       <c r="K153" t="s"/>
       <c r="L153" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M153" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N153" t="s"/>
       <c r="O153" t="s"/>
@@ -7732,11 +7842,11 @@
     </row>
     <row r="154" spans="1:29">
       <c r="A154" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B154" t="s"/>
       <c r="C154" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D154" t="s"/>
       <c r="E154" t="s"/>
@@ -7747,10 +7857,10 @@
       <c r="J154" t="s"/>
       <c r="K154" t="s"/>
       <c r="L154" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M154" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N154" t="s"/>
       <c r="O154" t="s"/>
@@ -7771,11 +7881,11 @@
     </row>
     <row r="155" spans="1:29">
       <c r="A155" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B155" t="s"/>
       <c r="C155" t="n">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D155" t="s"/>
       <c r="E155" t="s"/>
@@ -7786,10 +7896,10 @@
       <c r="J155" t="s"/>
       <c r="K155" t="s"/>
       <c r="L155" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M155" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N155" t="s"/>
       <c r="O155" t="s"/>
@@ -7810,11 +7920,11 @@
     </row>
     <row r="156" spans="1:29">
       <c r="A156" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B156" t="s"/>
       <c r="C156" t="n">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D156" t="s"/>
       <c r="E156" t="s"/>
@@ -7825,10 +7935,10 @@
       <c r="J156" t="s"/>
       <c r="K156" t="s"/>
       <c r="L156" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M156" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N156" t="s"/>
       <c r="O156" t="s"/>
@@ -7849,11 +7959,11 @@
     </row>
     <row r="157" spans="1:29">
       <c r="A157" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B157" t="s"/>
       <c r="C157" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D157" t="s"/>
       <c r="E157" t="s"/>
@@ -7864,10 +7974,10 @@
       <c r="J157" t="s"/>
       <c r="K157" t="s"/>
       <c r="L157" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M157" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="N157" t="s"/>
       <c r="O157" t="s"/>
@@ -7888,11 +7998,11 @@
     </row>
     <row r="158" spans="1:29">
       <c r="A158" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B158" t="s"/>
       <c r="C158" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D158" t="s"/>
       <c r="E158" t="s"/>
@@ -7903,10 +8013,10 @@
       <c r="J158" t="s"/>
       <c r="K158" t="s"/>
       <c r="L158" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M158" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N158" t="s"/>
       <c r="O158" t="s"/>
@@ -7927,11 +8037,11 @@
     </row>
     <row r="159" spans="1:29">
       <c r="A159" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B159" t="s"/>
       <c r="C159" t="n">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D159" t="s"/>
       <c r="E159" t="s"/>
@@ -7942,10 +8052,10 @@
       <c r="J159" t="s"/>
       <c r="K159" t="s"/>
       <c r="L159" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M159" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N159" t="s"/>
       <c r="O159" t="s"/>
@@ -7966,11 +8076,11 @@
     </row>
     <row r="160" spans="1:29">
       <c r="A160" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B160" t="s"/>
       <c r="C160" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D160" t="s"/>
       <c r="E160" t="s"/>
@@ -7981,10 +8091,10 @@
       <c r="J160" t="s"/>
       <c r="K160" t="s"/>
       <c r="L160" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M160" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N160" t="s"/>
       <c r="O160" t="s"/>
@@ -8005,11 +8115,11 @@
     </row>
     <row r="161" spans="1:29">
       <c r="A161" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B161" t="s"/>
       <c r="C161" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D161" t="s"/>
       <c r="E161" t="s"/>
@@ -8020,10 +8130,10 @@
       <c r="J161" t="s"/>
       <c r="K161" t="s"/>
       <c r="L161" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="M161" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N161" t="s"/>
       <c r="O161" t="s"/>
@@ -8044,11 +8154,11 @@
     </row>
     <row r="162" spans="1:29">
       <c r="A162" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B162" t="s"/>
       <c r="C162" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D162" t="s"/>
       <c r="E162" t="s"/>
@@ -8059,10 +8169,10 @@
       <c r="J162" t="s"/>
       <c r="K162" t="s"/>
       <c r="L162" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M162" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N162" t="s"/>
       <c r="O162" t="s"/>
@@ -8083,11 +8193,11 @@
     </row>
     <row r="163" spans="1:29">
       <c r="A163" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B163" t="s"/>
       <c r="C163" t="n">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D163" t="s"/>
       <c r="E163" t="s"/>
@@ -8098,10 +8208,10 @@
       <c r="J163" t="s"/>
       <c r="K163" t="s"/>
       <c r="L163" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M163" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="N163" t="s"/>
       <c r="O163" t="s"/>
@@ -8122,11 +8232,11 @@
     </row>
     <row r="164" spans="1:29">
       <c r="A164" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B164" t="s"/>
       <c r="C164" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D164" t="s"/>
       <c r="E164" t="s"/>
@@ -8137,10 +8247,10 @@
       <c r="J164" t="s"/>
       <c r="K164" t="s"/>
       <c r="L164" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M164" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N164" t="s"/>
       <c r="O164" t="s"/>
@@ -8161,11 +8271,11 @@
     </row>
     <row r="165" spans="1:29">
       <c r="A165" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B165" t="s"/>
       <c r="C165" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D165" t="s"/>
       <c r="E165" t="s"/>
@@ -8176,10 +8286,10 @@
       <c r="J165" t="s"/>
       <c r="K165" t="s"/>
       <c r="L165" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M165" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N165" t="s"/>
       <c r="O165" t="s"/>
@@ -8200,25 +8310,29 @@
     </row>
     <row r="166" spans="1:29">
       <c r="A166" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B166" t="s"/>
       <c r="C166" t="n">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D166" t="s"/>
       <c r="E166" t="s"/>
-      <c r="F166" t="s"/>
-      <c r="G166" t="s"/>
+      <c r="F166" t="s">
+        <v>374</v>
+      </c>
+      <c r="G166" t="s">
+        <v>375</v>
+      </c>
       <c r="H166" t="s"/>
       <c r="I166" t="s"/>
       <c r="J166" t="s"/>
       <c r="K166" t="s"/>
       <c r="L166" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M166" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N166" t="s"/>
       <c r="O166" t="s"/>
@@ -8239,33 +8353,29 @@
     </row>
     <row r="167" spans="1:29">
       <c r="A167" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B167" t="s"/>
       <c r="C167" t="n">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D167" t="s"/>
-      <c r="E167" t="s">
-        <v>57</v>
-      </c>
+      <c r="E167" t="s"/>
       <c r="F167" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="G167" t="s">
         <v>375</v>
       </c>
-      <c r="H167" t="s">
-        <v>376</v>
-      </c>
+      <c r="H167" t="s"/>
       <c r="I167" t="s"/>
       <c r="J167" t="s"/>
       <c r="K167" t="s"/>
       <c r="L167" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M167" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="N167" t="s"/>
       <c r="O167" t="s"/>
@@ -8286,33 +8396,29 @@
     </row>
     <row r="168" spans="1:29">
       <c r="A168" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B168" t="s"/>
       <c r="C168" t="n">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="D168" t="s"/>
-      <c r="E168" t="s">
-        <v>57</v>
-      </c>
+      <c r="E168" t="s"/>
       <c r="F168" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="G168" t="s">
         <v>375</v>
       </c>
-      <c r="H168" t="s">
-        <v>376</v>
-      </c>
+      <c r="H168" t="s"/>
       <c r="I168" t="s"/>
       <c r="J168" t="s"/>
       <c r="K168" t="s"/>
       <c r="L168" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M168" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N168" t="s"/>
       <c r="O168" t="s"/>
@@ -8333,25 +8439,21 @@
     </row>
     <row r="169" spans="1:29">
       <c r="A169" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B169" t="s"/>
       <c r="C169" t="n">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="D169" t="s"/>
-      <c r="E169" t="s">
-        <v>381</v>
-      </c>
+      <c r="E169" t="s"/>
       <c r="F169" t="s">
-        <v>59</v>
+        <v>374</v>
       </c>
       <c r="G169" t="s">
         <v>375</v>
       </c>
-      <c r="H169" t="s">
-        <v>376</v>
-      </c>
+      <c r="H169" t="s"/>
       <c r="I169" t="s"/>
       <c r="J169" t="s"/>
       <c r="K169" t="s"/>
@@ -8382,32 +8484,22 @@
       <c r="A170" t="s">
         <v>383</v>
       </c>
-      <c r="B170" t="s"/>
-      <c r="C170" t="n">
-        <v>163</v>
-      </c>
-      <c r="D170" t="s"/>
-      <c r="E170" t="s">
-        <v>384</v>
-      </c>
-      <c r="F170" t="s">
-        <v>59</v>
-      </c>
-      <c r="G170" t="s">
-        <v>375</v>
-      </c>
-      <c r="H170" t="s">
-        <v>376</v>
-      </c>
+      <c r="B170" t="s">
+        <v>381</v>
+      </c>
+      <c r="C170" t="s"/>
+      <c r="D170" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170" t="s"/>
+      <c r="F170" t="s"/>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s"/>
       <c r="I170" t="s"/>
       <c r="J170" t="s"/>
       <c r="K170" t="s"/>
-      <c r="L170" t="s">
-        <v>385</v>
-      </c>
-      <c r="M170" t="s">
-        <v>385</v>
-      </c>
+      <c r="L170" t="s"/>
+      <c r="M170" t="s"/>
       <c r="N170" t="s"/>
       <c r="O170" t="s"/>
       <c r="P170" t="s"/>
@@ -8425,6 +8517,809 @@
       <c r="AB170" t="s"/>
       <c r="AC170" t="s"/>
     </row>
+    <row r="171" spans="1:29">
+      <c r="A171" t="s">
+        <v>384</v>
+      </c>
+      <c r="B171" t="s"/>
+      <c r="C171" t="n">
+        <v>179</v>
+      </c>
+      <c r="D171" t="s"/>
+      <c r="E171" t="s"/>
+      <c r="F171" t="s">
+        <v>374</v>
+      </c>
+      <c r="G171" t="s">
+        <v>375</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s"/>
+      <c r="K171" t="s"/>
+      <c r="L171" t="s">
+        <v>385</v>
+      </c>
+      <c r="M171" t="s">
+        <v>385</v>
+      </c>
+      <c r="N171" t="s"/>
+      <c r="O171" t="s"/>
+      <c r="P171" t="s"/>
+      <c r="Q171" t="s"/>
+      <c r="R171" t="s"/>
+      <c r="S171" t="s"/>
+      <c r="T171" t="s"/>
+      <c r="U171" t="s"/>
+      <c r="V171" t="s"/>
+      <c r="W171" t="s"/>
+      <c r="X171" t="s"/>
+      <c r="Y171" t="s"/>
+      <c r="Z171" t="s"/>
+      <c r="AA171" t="s"/>
+      <c r="AB171" t="s"/>
+      <c r="AC171" t="s"/>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" t="s">
+        <v>386</v>
+      </c>
+      <c r="B172" t="s"/>
+      <c r="C172" t="n">
+        <v>180</v>
+      </c>
+      <c r="D172" t="s"/>
+      <c r="E172" t="s"/>
+      <c r="F172" t="s">
+        <v>374</v>
+      </c>
+      <c r="G172" t="s">
+        <v>375</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s"/>
+      <c r="K172" t="s"/>
+      <c r="L172" t="s">
+        <v>387</v>
+      </c>
+      <c r="M172" t="s">
+        <v>387</v>
+      </c>
+      <c r="N172" t="s"/>
+      <c r="O172" t="s"/>
+      <c r="P172" t="s"/>
+      <c r="Q172" t="s"/>
+      <c r="R172" t="s"/>
+      <c r="S172" t="s"/>
+      <c r="T172" t="s"/>
+      <c r="U172" t="s"/>
+      <c r="V172" t="s"/>
+      <c r="W172" t="s"/>
+      <c r="X172" t="s"/>
+      <c r="Y172" t="s"/>
+      <c r="Z172" t="s"/>
+      <c r="AA172" t="s"/>
+      <c r="AB172" t="s"/>
+      <c r="AC172" t="s"/>
+    </row>
+    <row r="173" spans="1:29">
+      <c r="A173" t="s">
+        <v>388</v>
+      </c>
+      <c r="B173" t="s">
+        <v>386</v>
+      </c>
+      <c r="C173" t="s"/>
+      <c r="D173" t="s">
+        <v>52</v>
+      </c>
+      <c r="E173" t="s"/>
+      <c r="F173" t="s"/>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s"/>
+      <c r="K173" t="s"/>
+      <c r="L173" t="s"/>
+      <c r="M173" t="s"/>
+      <c r="N173" t="s"/>
+      <c r="O173" t="s"/>
+      <c r="P173" t="s"/>
+      <c r="Q173" t="s"/>
+      <c r="R173" t="s"/>
+      <c r="S173" t="s"/>
+      <c r="T173" t="s"/>
+      <c r="U173" t="s"/>
+      <c r="V173" t="s"/>
+      <c r="W173" t="s"/>
+      <c r="X173" t="s"/>
+      <c r="Y173" t="s"/>
+      <c r="Z173" t="s"/>
+      <c r="AA173" t="s"/>
+      <c r="AB173" t="s"/>
+      <c r="AC173" t="s"/>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" t="s">
+        <v>389</v>
+      </c>
+      <c r="B174" t="s"/>
+      <c r="C174" t="n">
+        <v>181</v>
+      </c>
+      <c r="D174" t="s"/>
+      <c r="E174" t="s"/>
+      <c r="F174" t="s">
+        <v>374</v>
+      </c>
+      <c r="G174" t="s">
+        <v>375</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s"/>
+      <c r="K174" t="s"/>
+      <c r="L174" t="s">
+        <v>390</v>
+      </c>
+      <c r="M174" t="s">
+        <v>390</v>
+      </c>
+      <c r="N174" t="s"/>
+      <c r="O174" t="s"/>
+      <c r="P174" t="s"/>
+      <c r="Q174" t="s"/>
+      <c r="R174" t="s"/>
+      <c r="S174" t="s"/>
+      <c r="T174" t="s"/>
+      <c r="U174" t="s"/>
+      <c r="V174" t="s"/>
+      <c r="W174" t="s"/>
+      <c r="X174" t="s"/>
+      <c r="Y174" t="s"/>
+      <c r="Z174" t="s"/>
+      <c r="AA174" t="s"/>
+      <c r="AB174" t="s"/>
+      <c r="AC174" t="s"/>
+    </row>
+    <row r="175" spans="1:29">
+      <c r="A175" t="s">
+        <v>391</v>
+      </c>
+      <c r="B175" t="s">
+        <v>389</v>
+      </c>
+      <c r="C175" t="s"/>
+      <c r="D175" t="s">
+        <v>52</v>
+      </c>
+      <c r="E175" t="s"/>
+      <c r="F175" t="s"/>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s"/>
+      <c r="K175" t="s"/>
+      <c r="L175" t="s"/>
+      <c r="M175" t="s"/>
+      <c r="N175" t="s"/>
+      <c r="O175" t="s"/>
+      <c r="P175" t="s"/>
+      <c r="Q175" t="s"/>
+      <c r="R175" t="s"/>
+      <c r="S175" t="s"/>
+      <c r="T175" t="s"/>
+      <c r="U175" t="s"/>
+      <c r="V175" t="s"/>
+      <c r="W175" t="s"/>
+      <c r="X175" t="s"/>
+      <c r="Y175" t="s"/>
+      <c r="Z175" t="s"/>
+      <c r="AA175" t="s"/>
+      <c r="AB175" t="s"/>
+      <c r="AC175" t="s"/>
+    </row>
+    <row r="176" spans="1:29">
+      <c r="A176" t="s">
+        <v>392</v>
+      </c>
+      <c r="B176" t="s"/>
+      <c r="C176" t="n">
+        <v>184</v>
+      </c>
+      <c r="D176" t="s"/>
+      <c r="E176" t="s"/>
+      <c r="F176" t="s">
+        <v>374</v>
+      </c>
+      <c r="G176" t="s">
+        <v>393</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s"/>
+      <c r="K176" t="s"/>
+      <c r="L176" t="s">
+        <v>394</v>
+      </c>
+      <c r="M176" t="s">
+        <v>394</v>
+      </c>
+      <c r="N176" t="s"/>
+      <c r="O176" t="s"/>
+      <c r="P176" t="s"/>
+      <c r="Q176" t="s"/>
+      <c r="R176" t="s"/>
+      <c r="S176" t="s"/>
+      <c r="T176" t="s"/>
+      <c r="U176" t="s"/>
+      <c r="V176" t="s"/>
+      <c r="W176" t="s"/>
+      <c r="X176" t="s"/>
+      <c r="Y176" t="s"/>
+      <c r="Z176" t="s"/>
+      <c r="AA176" t="s"/>
+      <c r="AB176" t="s"/>
+      <c r="AC176" t="s"/>
+    </row>
+    <row r="177" spans="1:29">
+      <c r="A177" t="s">
+        <v>395</v>
+      </c>
+      <c r="B177" t="s">
+        <v>392</v>
+      </c>
+      <c r="C177" t="s"/>
+      <c r="D177" t="s">
+        <v>52</v>
+      </c>
+      <c r="E177" t="s"/>
+      <c r="F177" t="s"/>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s"/>
+      <c r="K177" t="s"/>
+      <c r="L177" t="s"/>
+      <c r="M177" t="s"/>
+      <c r="N177" t="s"/>
+      <c r="O177" t="s"/>
+      <c r="P177" t="s"/>
+      <c r="Q177" t="s"/>
+      <c r="R177" t="s"/>
+      <c r="S177" t="s"/>
+      <c r="T177" t="s"/>
+      <c r="U177" t="s"/>
+      <c r="V177" t="s"/>
+      <c r="W177" t="s"/>
+      <c r="X177" t="s"/>
+      <c r="Y177" t="s"/>
+      <c r="Z177" t="s"/>
+      <c r="AA177" t="s"/>
+      <c r="AB177" t="s"/>
+      <c r="AC177" t="s"/>
+    </row>
+    <row r="178" spans="1:29">
+      <c r="A178" t="s">
+        <v>396</v>
+      </c>
+      <c r="B178" t="s"/>
+      <c r="C178" t="n">
+        <v>185</v>
+      </c>
+      <c r="D178" t="s"/>
+      <c r="E178" t="s"/>
+      <c r="F178" t="s">
+        <v>374</v>
+      </c>
+      <c r="G178" t="s">
+        <v>393</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s"/>
+      <c r="K178" t="s"/>
+      <c r="L178" t="s">
+        <v>397</v>
+      </c>
+      <c r="M178" t="s">
+        <v>397</v>
+      </c>
+      <c r="N178" t="s"/>
+      <c r="O178" t="s"/>
+      <c r="P178" t="s"/>
+      <c r="Q178" t="s"/>
+      <c r="R178" t="s"/>
+      <c r="S178" t="s"/>
+      <c r="T178" t="s"/>
+      <c r="U178" t="s"/>
+      <c r="V178" t="s"/>
+      <c r="W178" t="s"/>
+      <c r="X178" t="s"/>
+      <c r="Y178" t="s"/>
+      <c r="Z178" t="s"/>
+      <c r="AA178" t="s"/>
+      <c r="AB178" t="s"/>
+      <c r="AC178" t="s"/>
+    </row>
+    <row r="179" spans="1:29">
+      <c r="A179" t="s">
+        <v>398</v>
+      </c>
+      <c r="B179" t="s"/>
+      <c r="C179" t="n">
+        <v>186</v>
+      </c>
+      <c r="D179" t="s"/>
+      <c r="E179" t="s"/>
+      <c r="F179" t="s">
+        <v>374</v>
+      </c>
+      <c r="G179" t="s">
+        <v>393</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s"/>
+      <c r="K179" t="s"/>
+      <c r="L179" t="s">
+        <v>399</v>
+      </c>
+      <c r="M179" t="s">
+        <v>399</v>
+      </c>
+      <c r="N179" t="s"/>
+      <c r="O179" t="s"/>
+      <c r="P179" t="s"/>
+      <c r="Q179" t="s"/>
+      <c r="R179" t="s"/>
+      <c r="S179" t="s"/>
+      <c r="T179" t="s"/>
+      <c r="U179" t="s"/>
+      <c r="V179" t="s"/>
+      <c r="W179" t="s"/>
+      <c r="X179" t="s"/>
+      <c r="Y179" t="s"/>
+      <c r="Z179" t="s"/>
+      <c r="AA179" t="s"/>
+      <c r="AB179" t="s"/>
+      <c r="AC179" t="s"/>
+    </row>
+    <row r="180" spans="1:29">
+      <c r="A180" t="s">
+        <v>400</v>
+      </c>
+      <c r="B180" t="s">
+        <v>398</v>
+      </c>
+      <c r="C180" t="s"/>
+      <c r="D180" t="s">
+        <v>52</v>
+      </c>
+      <c r="E180" t="s"/>
+      <c r="F180" t="s"/>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s"/>
+      <c r="K180" t="s"/>
+      <c r="L180" t="s"/>
+      <c r="M180" t="s"/>
+      <c r="N180" t="s"/>
+      <c r="O180" t="s"/>
+      <c r="P180" t="s"/>
+      <c r="Q180" t="s"/>
+      <c r="R180" t="s"/>
+      <c r="S180" t="s"/>
+      <c r="T180" t="s"/>
+      <c r="U180" t="s"/>
+      <c r="V180" t="s"/>
+      <c r="W180" t="s"/>
+      <c r="X180" t="s"/>
+      <c r="Y180" t="s"/>
+      <c r="Z180" t="s"/>
+      <c r="AA180" t="s"/>
+      <c r="AB180" t="s"/>
+      <c r="AC180" t="s"/>
+    </row>
+    <row r="181" spans="1:29">
+      <c r="A181" t="s">
+        <v>401</v>
+      </c>
+      <c r="B181" t="s">
+        <v>398</v>
+      </c>
+      <c r="C181" t="s"/>
+      <c r="D181" t="s">
+        <v>52</v>
+      </c>
+      <c r="E181" t="s"/>
+      <c r="F181" t="s"/>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s"/>
+      <c r="K181" t="s"/>
+      <c r="L181" t="s"/>
+      <c r="M181" t="s"/>
+      <c r="N181" t="s"/>
+      <c r="O181" t="s"/>
+      <c r="P181" t="s"/>
+      <c r="Q181" t="s"/>
+      <c r="R181" t="s"/>
+      <c r="S181" t="s"/>
+      <c r="T181" t="s"/>
+      <c r="U181" t="s"/>
+      <c r="V181" t="s"/>
+      <c r="W181" t="s"/>
+      <c r="X181" t="s"/>
+      <c r="Y181" t="s"/>
+      <c r="Z181" t="s"/>
+      <c r="AA181" t="s"/>
+      <c r="AB181" t="s"/>
+      <c r="AC181" t="s"/>
+    </row>
+    <row r="182" spans="1:29">
+      <c r="A182" t="s">
+        <v>402</v>
+      </c>
+      <c r="B182" t="s"/>
+      <c r="C182" t="n">
+        <v>187</v>
+      </c>
+      <c r="D182" t="s"/>
+      <c r="E182" t="s"/>
+      <c r="F182" t="s">
+        <v>374</v>
+      </c>
+      <c r="G182" t="s">
+        <v>393</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s"/>
+      <c r="K182" t="s"/>
+      <c r="L182" t="s">
+        <v>403</v>
+      </c>
+      <c r="M182" t="s">
+        <v>403</v>
+      </c>
+      <c r="N182" t="s"/>
+      <c r="O182" t="s"/>
+      <c r="P182" t="s"/>
+      <c r="Q182" t="s"/>
+      <c r="R182" t="s"/>
+      <c r="S182" t="s"/>
+      <c r="T182" t="s"/>
+      <c r="U182" t="s"/>
+      <c r="V182" t="s"/>
+      <c r="W182" t="s"/>
+      <c r="X182" t="s"/>
+      <c r="Y182" t="s"/>
+      <c r="Z182" t="s"/>
+      <c r="AA182" t="s"/>
+      <c r="AB182" t="s"/>
+      <c r="AC182" t="s"/>
+    </row>
+    <row r="183" spans="1:29">
+      <c r="A183" t="s">
+        <v>404</v>
+      </c>
+      <c r="B183" t="s"/>
+      <c r="C183" t="n">
+        <v>188</v>
+      </c>
+      <c r="D183" t="s"/>
+      <c r="E183" t="s"/>
+      <c r="F183" t="s">
+        <v>374</v>
+      </c>
+      <c r="G183" t="s">
+        <v>393</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s"/>
+      <c r="K183" t="s"/>
+      <c r="L183" t="s">
+        <v>405</v>
+      </c>
+      <c r="M183" t="s">
+        <v>405</v>
+      </c>
+      <c r="N183" t="s"/>
+      <c r="O183" t="s"/>
+      <c r="P183" t="s"/>
+      <c r="Q183" t="s"/>
+      <c r="R183" t="s"/>
+      <c r="S183" t="s"/>
+      <c r="T183" t="s"/>
+      <c r="U183" t="s"/>
+      <c r="V183" t="s"/>
+      <c r="W183" t="s"/>
+      <c r="X183" t="s"/>
+      <c r="Y183" t="s"/>
+      <c r="Z183" t="s"/>
+      <c r="AA183" t="s"/>
+      <c r="AB183" t="s"/>
+      <c r="AC183" t="s"/>
+    </row>
+    <row r="184" spans="1:29">
+      <c r="A184" t="s">
+        <v>406</v>
+      </c>
+      <c r="B184" t="s"/>
+      <c r="C184" t="n">
+        <v>189</v>
+      </c>
+      <c r="D184" t="s"/>
+      <c r="E184" t="s"/>
+      <c r="F184" t="s">
+        <v>374</v>
+      </c>
+      <c r="G184" t="s">
+        <v>393</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s"/>
+      <c r="K184" t="s"/>
+      <c r="L184" t="s">
+        <v>407</v>
+      </c>
+      <c r="M184" t="s">
+        <v>407</v>
+      </c>
+      <c r="N184" t="s"/>
+      <c r="O184" t="s"/>
+      <c r="P184" t="s"/>
+      <c r="Q184" t="s"/>
+      <c r="R184" t="s"/>
+      <c r="S184" t="s"/>
+      <c r="T184" t="s"/>
+      <c r="U184" t="s"/>
+      <c r="V184" t="s"/>
+      <c r="W184" t="s"/>
+      <c r="X184" t="s"/>
+      <c r="Y184" t="s"/>
+      <c r="Z184" t="s"/>
+      <c r="AA184" t="s"/>
+      <c r="AB184" t="s"/>
+      <c r="AC184" t="s"/>
+    </row>
+    <row r="185" spans="1:29">
+      <c r="A185" t="s">
+        <v>408</v>
+      </c>
+      <c r="B185" t="s"/>
+      <c r="C185" t="n">
+        <v>190</v>
+      </c>
+      <c r="D185" t="s"/>
+      <c r="E185" t="s"/>
+      <c r="F185" t="s">
+        <v>374</v>
+      </c>
+      <c r="G185" t="s">
+        <v>393</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s"/>
+      <c r="K185" t="s"/>
+      <c r="L185" t="s">
+        <v>409</v>
+      </c>
+      <c r="M185" t="s">
+        <v>409</v>
+      </c>
+      <c r="N185" t="s"/>
+      <c r="O185" t="s"/>
+      <c r="P185" t="s"/>
+      <c r="Q185" t="s"/>
+      <c r="R185" t="s"/>
+      <c r="S185" t="s"/>
+      <c r="T185" t="s"/>
+      <c r="U185" t="s"/>
+      <c r="V185" t="s"/>
+      <c r="W185" t="s"/>
+      <c r="X185" t="s"/>
+      <c r="Y185" t="s"/>
+      <c r="Z185" t="s"/>
+      <c r="AA185" t="s"/>
+      <c r="AB185" t="s"/>
+      <c r="AC185" t="s"/>
+    </row>
+    <row r="186" spans="1:29">
+      <c r="A186" t="s">
+        <v>410</v>
+      </c>
+      <c r="B186" t="s"/>
+      <c r="C186" t="n">
+        <v>160</v>
+      </c>
+      <c r="D186" t="s"/>
+      <c r="E186" t="s">
+        <v>53</v>
+      </c>
+      <c r="F186" t="s">
+        <v>58</v>
+      </c>
+      <c r="G186" t="s">
+        <v>411</v>
+      </c>
+      <c r="H186" t="s">
+        <v>412</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s"/>
+      <c r="K186" t="s"/>
+      <c r="L186" t="s">
+        <v>413</v>
+      </c>
+      <c r="M186" t="s">
+        <v>413</v>
+      </c>
+      <c r="N186" t="s"/>
+      <c r="O186" t="s"/>
+      <c r="P186" t="s"/>
+      <c r="Q186" t="s"/>
+      <c r="R186" t="s"/>
+      <c r="S186" t="s"/>
+      <c r="T186" t="s"/>
+      <c r="U186" t="s"/>
+      <c r="V186" t="s"/>
+      <c r="W186" t="s"/>
+      <c r="X186" t="s"/>
+      <c r="Y186" t="s"/>
+      <c r="Z186" t="s"/>
+      <c r="AA186" t="s"/>
+      <c r="AB186" t="s"/>
+      <c r="AC186" t="s"/>
+    </row>
+    <row r="187" spans="1:29">
+      <c r="A187" t="s">
+        <v>414</v>
+      </c>
+      <c r="B187" t="s"/>
+      <c r="C187" t="n">
+        <v>161</v>
+      </c>
+      <c r="D187" t="s"/>
+      <c r="E187" t="s">
+        <v>53</v>
+      </c>
+      <c r="F187" t="s">
+        <v>58</v>
+      </c>
+      <c r="G187" t="s">
+        <v>411</v>
+      </c>
+      <c r="H187" t="s">
+        <v>412</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s"/>
+      <c r="K187" t="s"/>
+      <c r="L187" t="s">
+        <v>415</v>
+      </c>
+      <c r="M187" t="s">
+        <v>415</v>
+      </c>
+      <c r="N187" t="s"/>
+      <c r="O187" t="s"/>
+      <c r="P187" t="s"/>
+      <c r="Q187" t="s"/>
+      <c r="R187" t="s"/>
+      <c r="S187" t="s"/>
+      <c r="T187" t="s"/>
+      <c r="U187" t="s"/>
+      <c r="V187" t="s"/>
+      <c r="W187" t="s"/>
+      <c r="X187" t="s"/>
+      <c r="Y187" t="s"/>
+      <c r="Z187" t="s"/>
+      <c r="AA187" t="s"/>
+      <c r="AB187" t="s"/>
+      <c r="AC187" t="s"/>
+    </row>
+    <row r="188" spans="1:29">
+      <c r="A188" t="s">
+        <v>416</v>
+      </c>
+      <c r="B188" t="s"/>
+      <c r="C188" t="n">
+        <v>165</v>
+      </c>
+      <c r="D188" t="s"/>
+      <c r="E188" t="s">
+        <v>417</v>
+      </c>
+      <c r="F188" t="s">
+        <v>58</v>
+      </c>
+      <c r="G188" t="s">
+        <v>411</v>
+      </c>
+      <c r="H188" t="s">
+        <v>412</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s"/>
+      <c r="K188" t="s"/>
+      <c r="L188" t="s">
+        <v>418</v>
+      </c>
+      <c r="M188" t="s">
+        <v>418</v>
+      </c>
+      <c r="N188" t="s"/>
+      <c r="O188" t="s"/>
+      <c r="P188" t="s"/>
+      <c r="Q188" t="s"/>
+      <c r="R188" t="s"/>
+      <c r="S188" t="s"/>
+      <c r="T188" t="s"/>
+      <c r="U188" t="s"/>
+      <c r="V188" t="s"/>
+      <c r="W188" t="s"/>
+      <c r="X188" t="s"/>
+      <c r="Y188" t="s"/>
+      <c r="Z188" t="s"/>
+      <c r="AA188" t="s"/>
+      <c r="AB188" t="s"/>
+      <c r="AC188" t="s"/>
+    </row>
+    <row r="189" spans="1:29">
+      <c r="A189" t="s">
+        <v>419</v>
+      </c>
+      <c r="B189" t="s"/>
+      <c r="C189" t="n">
+        <v>163</v>
+      </c>
+      <c r="D189" t="s"/>
+      <c r="E189" t="s">
+        <v>420</v>
+      </c>
+      <c r="F189" t="s">
+        <v>58</v>
+      </c>
+      <c r="G189" t="s">
+        <v>411</v>
+      </c>
+      <c r="H189" t="s">
+        <v>412</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s"/>
+      <c r="K189" t="s"/>
+      <c r="L189" t="s">
+        <v>421</v>
+      </c>
+      <c r="M189" t="s">
+        <v>421</v>
+      </c>
+      <c r="N189" t="s"/>
+      <c r="O189" t="s"/>
+      <c r="P189" t="s"/>
+      <c r="Q189" t="s"/>
+      <c r="R189" t="s"/>
+      <c r="S189" t="s"/>
+      <c r="T189" t="s"/>
+      <c r="U189" t="s"/>
+      <c r="V189" t="s"/>
+      <c r="W189" t="s"/>
+      <c r="X189" t="s"/>
+      <c r="Y189" t="s"/>
+      <c r="Z189" t="s"/>
+      <c r="AA189" t="s"/>
+      <c r="AB189" t="s"/>
+      <c r="AC189" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
